--- a/stats1000_Time.xlsx
+++ b/stats1000_Time.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="420" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2580" yWindow="0" windowWidth="25600" windowHeight="16600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="c-Chart" sheetId="3" r:id="rId1"/>
@@ -438,7 +438,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1855">
+  <cellStyleXfs count="1877">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1868,6 +1868,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2358,7 +2380,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1855">
+  <cellStyles count="1877">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -3285,6 +3307,17 @@
     <cellStyle name="Lien hypertexte" xfId="1849" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="1851" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="1853" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1855" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1857" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1859" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1861" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1863" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1865" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1867" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1869" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1871" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1873" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1875" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -4211,6 +4244,17 @@
     <cellStyle name="Lien hypertexte visité" xfId="1850" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="1852" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="1854" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1856" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1858" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1860" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1862" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1864" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1866" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1868" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1870" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1872" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1874" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1876" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1427"/>
     <cellStyle name="Pourcentage 2" xfId="1428"/>
@@ -4691,11 +4735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099630696"/>
-        <c:axId val="1846208040"/>
+        <c:axId val="-2071540696"/>
+        <c:axId val="-2071538744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099630696"/>
+        <c:axId val="-2071540696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4730,7 +4774,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1846208040"/>
+        <c:crossAx val="-2071538744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4740,7 +4784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1846208040"/>
+        <c:axId val="-2071538744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4785,7 +4829,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099630696"/>
+        <c:crossAx val="-2071540696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5071,8 +5115,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1985129000"/>
-        <c:axId val="-1985146824"/>
+        <c:axId val="-2122597272"/>
+        <c:axId val="-2122558888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5659,11 +5703,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1985129000"/>
-        <c:axId val="-1985146824"/>
+        <c:axId val="-2122597272"/>
+        <c:axId val="-2122558888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1985129000"/>
+        <c:axId val="-2122597272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5728,7 +5772,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1985146824"/>
+        <c:crossAx val="-2122558888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5738,7 +5782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1985146824"/>
+        <c:axId val="-2122558888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5822,7 +5866,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1985129000"/>
+        <c:crossAx val="-2122597272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6069,8 +6113,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1985185272"/>
-        <c:axId val="1845614856"/>
+        <c:axId val="-2122505752"/>
+        <c:axId val="-2122499608"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6495,11 +6539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1985185272"/>
-        <c:axId val="1845614856"/>
+        <c:axId val="-2122505752"/>
+        <c:axId val="-2122499608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1985185272"/>
+        <c:axId val="-2122505752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6573,7 +6617,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1845614856"/>
+        <c:crossAx val="-2122499608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6583,7 +6627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1845614856"/>
+        <c:axId val="-2122499608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6647,7 +6691,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1985185272"/>
+        <c:crossAx val="-2122505752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6888,8 +6932,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1846259752"/>
-        <c:axId val="-1985036664"/>
+        <c:axId val="-2069203272"/>
+        <c:axId val="-2069197128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7296,11 +7340,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1846259752"/>
-        <c:axId val="-1985036664"/>
+        <c:axId val="-2069203272"/>
+        <c:axId val="-2069197128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1846259752"/>
+        <c:axId val="-2069203272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7374,7 +7418,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1985036664"/>
+        <c:crossAx val="-2069197128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7384,7 +7428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1985036664"/>
+        <c:axId val="-2069197128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7473,7 +7517,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1846259752"/>
+        <c:crossAx val="-2069203272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7711,8 +7755,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1845548968"/>
-        <c:axId val="1845551432"/>
+        <c:axId val="-2068786248"/>
+        <c:axId val="-2068792376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8152,11 +8196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1845548968"/>
-        <c:axId val="1845551432"/>
+        <c:axId val="-2068786248"/>
+        <c:axId val="-2068792376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1845548968"/>
+        <c:axId val="-2068786248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8230,7 +8274,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1845551432"/>
+        <c:crossAx val="-2068792376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8240,7 +8284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1845551432"/>
+        <c:axId val="-2068792376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8324,7 +8368,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1845548968"/>
+        <c:crossAx val="-2068786248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8565,8 +8609,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1846070744"/>
-        <c:axId val="1845871896"/>
+        <c:axId val="-2069143224"/>
+        <c:axId val="-2069137080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8983,11 +9027,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1846070744"/>
-        <c:axId val="1845871896"/>
+        <c:axId val="-2069143224"/>
+        <c:axId val="-2069137080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1846070744"/>
+        <c:axId val="-2069143224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9061,7 +9105,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1845871896"/>
+        <c:crossAx val="-2069137080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9071,7 +9115,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1845871896"/>
+        <c:axId val="-2069137080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9155,7 +9199,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1846070744"/>
+        <c:crossAx val="-2069143224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9537,8 +9581,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1846136536"/>
-        <c:axId val="1845896392"/>
+        <c:axId val="-2066456104"/>
+        <c:axId val="-2069118376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10378,11 +10422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1846136536"/>
-        <c:axId val="1845896392"/>
+        <c:axId val="-2066456104"/>
+        <c:axId val="-2069118376"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1846136536"/>
+        <c:axId val="-2066456104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10447,7 +10491,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1845896392"/>
+        <c:crossAx val="-2069118376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -10458,7 +10502,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1845896392"/>
+        <c:axId val="-2069118376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10542,7 +10586,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1846136536"/>
+        <c:crossAx val="-2066456104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10780,8 +10824,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1985944696"/>
-        <c:axId val="1845932024"/>
+        <c:axId val="-2069034808"/>
+        <c:axId val="-2069028664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11221,11 +11265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1985944696"/>
-        <c:axId val="1845932024"/>
+        <c:axId val="-2069034808"/>
+        <c:axId val="-2069028664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1985944696"/>
+        <c:axId val="-2069034808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11299,7 +11343,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1845932024"/>
+        <c:crossAx val="-2069028664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11309,7 +11353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1845932024"/>
+        <c:axId val="-2069028664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11393,7 +11437,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1985944696"/>
+        <c:crossAx val="-2069034808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11892,8 +11936,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1983449256"/>
-        <c:axId val="-1973913480"/>
+        <c:axId val="-2068964712"/>
+        <c:axId val="-2068958568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13118,11 +13162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1983449256"/>
-        <c:axId val="-1973913480"/>
+        <c:axId val="-2068964712"/>
+        <c:axId val="-2068958568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1983449256"/>
+        <c:axId val="-2068964712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13196,7 +13240,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1973913480"/>
+        <c:crossAx val="-2068958568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13206,7 +13250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1973913480"/>
+        <c:axId val="-2068958568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13290,7 +13334,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1983449256"/>
+        <c:crossAx val="-2068964712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16726,8 +16770,8 @@
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:AI292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B42" sqref="B29:F42"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122:F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16796,11 +16840,11 @@
         <v>2.1860744297719088</v>
       </c>
       <c r="G7" s="2">
-        <f>MAX(B7:F7)-MIN(B7:F7)</f>
+        <f t="shared" ref="G7:G25" si="0">MAX(B7:F7)-MIN(B7:F7)</f>
         <v>1.7034813925570229</v>
       </c>
       <c r="H7">
-        <f>$G$26</f>
+        <f t="shared" ref="H7:H25" si="1">$G$26</f>
         <v>3.2777997305063398</v>
       </c>
       <c r="I7">
@@ -16831,15 +16875,15 @@
         <v>1.6357142857142859</v>
       </c>
       <c r="G8" s="2">
-        <f>MAX(B8:F8)-MIN(B8:F8)</f>
+        <f t="shared" si="0"/>
         <v>1.1014285714285714</v>
       </c>
       <c r="H8">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I24" si="0">H8*2.114</f>
+        <f t="shared" ref="I8:I24" si="2">H8*2.114</f>
         <v>6.9292686302904016</v>
       </c>
       <c r="J8">
@@ -16863,15 +16907,15 @@
         <v>1.5563463819691579</v>
       </c>
       <c r="G9" s="2">
-        <f>MAX(B9:F9)-MIN(B9:F9)</f>
+        <f t="shared" si="0"/>
         <v>1.0201660735468565</v>
       </c>
       <c r="H9">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9292686302904016</v>
       </c>
       <c r="J9">
@@ -16895,15 +16939,15 @@
         <v>5.5142617449664399</v>
       </c>
       <c r="G10" s="2">
-        <f>MAX(B10:F10)-MIN(B10:F10)</f>
+        <f t="shared" si="0"/>
         <v>4.9437919463087221</v>
       </c>
       <c r="H10">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9292686302904016</v>
       </c>
       <c r="J10">
@@ -16927,15 +16971,15 @@
         <v>3.5515202702702706</v>
       </c>
       <c r="G11" s="2">
-        <f>MAX(B11:F11)-MIN(B11:F11)</f>
+        <f t="shared" si="0"/>
         <v>3.0287162162162167</v>
       </c>
       <c r="H11">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9292686302904016</v>
       </c>
       <c r="J11">
@@ -16959,15 +17003,15 @@
         <v>4.4678841309823678</v>
       </c>
       <c r="G12" s="2">
-        <f>MAX(B12:F12)-MIN(B12:F12)</f>
+        <f t="shared" si="0"/>
         <v>3.8847607052896729</v>
       </c>
       <c r="H12">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9292686302904016</v>
       </c>
       <c r="J12">
@@ -16991,15 +17035,15 @@
         <v>1.9349503858875412</v>
       </c>
       <c r="G13" s="2">
-        <f>MAX(B13:F13)-MIN(B13:F13)</f>
+        <f t="shared" si="0"/>
         <v>1.412348401323043</v>
       </c>
       <c r="H13">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9292686302904016</v>
       </c>
       <c r="J13">
@@ -17023,15 +17067,15 @@
         <v>1.2217245240761478</v>
       </c>
       <c r="G14" s="2">
-        <f>MAX(B14:F14)-MIN(B14:F14)</f>
+        <f t="shared" si="0"/>
         <v>0.69652855543113112</v>
       </c>
       <c r="H14">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9292686302904016</v>
       </c>
       <c r="J14">
@@ -17055,15 +17099,15 @@
         <v>1.0181200453001134</v>
       </c>
       <c r="G15" s="2">
-        <f>MAX(B15:F15)-MIN(B15:F15)</f>
+        <f t="shared" si="0"/>
         <v>0.56511891279728199</v>
       </c>
       <c r="H15">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9292686302904016</v>
       </c>
       <c r="J15">
@@ -17087,15 +17131,15 @@
         <v>0.85277777777777775</v>
       </c>
       <c r="G16" s="2">
-        <f>MAX(B16:F16)-MIN(B16:F16)</f>
+        <f t="shared" si="0"/>
         <v>0.38888888888888884</v>
       </c>
       <c r="H16">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9292686302904016</v>
       </c>
       <c r="J16">
@@ -17119,15 +17163,15 @@
         <v>1.2341040462427746</v>
       </c>
       <c r="G17" s="2">
-        <f>MAX(B17:F17)-MIN(B17:F17)</f>
+        <f t="shared" si="0"/>
         <v>0.63872832369942201</v>
       </c>
       <c r="H17">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9292686302904016</v>
       </c>
       <c r="J17">
@@ -17151,15 +17195,15 @@
         <v>1.5431472081218274</v>
       </c>
       <c r="G18" s="2">
-        <f>MAX(B18:F18)-MIN(B18:F18)</f>
+        <f t="shared" si="0"/>
         <v>0.8883248730964467</v>
       </c>
       <c r="H18">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9292686302904016</v>
       </c>
       <c r="J18">
@@ -17183,15 +17227,15 @@
         <v>1.5813366960907944</v>
       </c>
       <c r="G19" s="2">
-        <f>MAX(B19:F19)-MIN(B19:F19)</f>
+        <f t="shared" si="0"/>
         <v>1.0491803278688525</v>
       </c>
       <c r="H19">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9292686302904016</v>
       </c>
       <c r="J19">
@@ -17215,15 +17259,15 @@
         <v>4.9194831013916502</v>
       </c>
       <c r="G20" s="2">
-        <f>MAX(B20:F20)-MIN(B20:F20)</f>
+        <f t="shared" si="0"/>
         <v>4.4403578528827037</v>
       </c>
       <c r="H20">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9292686302904016</v>
       </c>
       <c r="J20">
@@ -17247,11 +17291,11 @@
         <v>32.43177331320404</v>
       </c>
       <c r="G21" s="2">
-        <f>MAX(B21:F21)-MIN(B21:F21)</f>
+        <f t="shared" si="0"/>
         <v>31.907327836488211</v>
       </c>
       <c r="H21">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I21">
@@ -17279,15 +17323,15 @@
         <v>0.9115168539325843</v>
       </c>
       <c r="G22" s="2">
-        <f>MAX(B22:F22)-MIN(B22:F22)</f>
+        <f t="shared" si="0"/>
         <v>0.45224719101123589</v>
       </c>
       <c r="H22">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9292686302904016</v>
       </c>
       <c r="J22">
@@ -17311,15 +17355,15 @@
         <v>1.4994011976047905</v>
       </c>
       <c r="G23" s="2">
-        <f>MAX(B23:F23)-MIN(B23:F23)</f>
+        <f t="shared" si="0"/>
         <v>0.94251497005988027</v>
       </c>
       <c r="H23">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9292686302904016</v>
       </c>
       <c r="J23">
@@ -17343,15 +17387,15 @@
         <v>1.7980364656381489</v>
       </c>
       <c r="G24" s="2">
-        <f>MAX(B24:F24)-MIN(B24:F24)</f>
+        <f t="shared" si="0"/>
         <v>1.2131837307152877</v>
       </c>
       <c r="H24">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9292686302904016</v>
       </c>
       <c r="J24">
@@ -17375,11 +17419,11 @@
         <v>2.5005500550055006</v>
       </c>
       <c r="G25" s="2">
-        <f>MAX(B25:F25)-MIN(B25:F25)</f>
+        <f t="shared" si="0"/>
         <v>2.0011001100110013</v>
       </c>
       <c r="H25">
-        <f>$G$26</f>
+        <f t="shared" si="1"/>
         <v>3.2777997305063398</v>
       </c>
       <c r="I25">
@@ -17452,7 +17496,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <f t="shared" ref="A30:A61" si="1">_xlfn.STDEV.S(B30:F30)</f>
+        <f t="shared" ref="A30:A61" si="3">_xlfn.STDEV.S(B30:F30)</f>
         <v>0.43081948062514497</v>
       </c>
       <c r="B30" s="2">
@@ -17471,11 +17515,11 @@
         <v>1.7510373443983402</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" ref="G30:G61" si="2">MAX(B30:F30)-MIN(B30:F30)</f>
+        <f t="shared" ref="G30:G61" si="4">MAX(B30:F30)-MIN(B30:F30)</f>
         <v>1.0145180389838711</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H61" si="3">$G$81</f>
+        <f t="shared" ref="H30:H61" si="5">$G$81</f>
         <v>16.122921300898827</v>
       </c>
       <c r="I30">
@@ -17488,7 +17532,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.30371338708042545</v>
       </c>
       <c r="B31" s="2">
@@ -17507,15 +17551,15 @@
         <v>0.7478108581436077</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.70599403142549566</v>
       </c>
       <c r="H31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I31">
-        <f t="shared" ref="I31:I80" si="4">H31*2.114</f>
+        <f t="shared" ref="I31:I80" si="6">H31*2.114</f>
         <v>34.083855630100118</v>
       </c>
       <c r="J31">
@@ -17524,7 +17568,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.31198063405879389</v>
       </c>
       <c r="B32" s="2">
@@ -17543,15 +17587,15 @@
         <v>1.6382681564245811</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.83265971723728982</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J32">
@@ -17560,7 +17604,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>66.165869283386641</v>
       </c>
       <c r="B33" s="2">
@@ -17579,15 +17623,15 @@
         <v>148.20187839604648</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>148.19804680107367</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J33">
@@ -17596,7 +17640,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.095265062523799</v>
       </c>
       <c r="B34" s="2">
@@ -17615,15 +17659,15 @@
         <v>12.20675453047776</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11.696507522072254</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J34">
@@ -17632,7 +17676,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1804100237027324</v>
       </c>
       <c r="B35" s="2">
@@ -17651,15 +17695,15 @@
         <v>21.030041152263372</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.829868414367727</v>
       </c>
       <c r="H35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J35">
@@ -17668,7 +17712,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.50027629799164053</v>
       </c>
       <c r="B36" s="2">
@@ -17687,15 +17731,15 @@
         <v>2.1827794561933533</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1833362236562279</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J36">
@@ -17704,7 +17748,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.27390216439950082</v>
       </c>
       <c r="B37" s="2">
@@ -17723,15 +17767,15 @@
         <v>1.3525091799265607</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.70680565522428096</v>
       </c>
       <c r="H37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J37">
@@ -17740,7 +17784,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.77240720678418595</v>
       </c>
       <c r="B38" s="2">
@@ -17759,15 +17803,15 @@
         <v>2.4748272458045415</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0099915316093164</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J38">
@@ -17776,7 +17820,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5627481485487713</v>
       </c>
       <c r="B39" s="2">
@@ -17795,15 +17839,15 @@
         <v>4.3471760797342194</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.7953057913268067</v>
       </c>
       <c r="H39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J39">
@@ -17812,7 +17856,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100.97139985027047</v>
       </c>
       <c r="B40" s="2">
@@ -17831,15 +17875,15 @@
         <v>226.92311977715877</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>226.43491748201831</v>
       </c>
       <c r="H40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J40">
@@ -17848,7 +17892,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>90.314608060116342</v>
       </c>
       <c r="B41" s="2">
@@ -17867,15 +17911,15 @@
         <v>202.88813229571983</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>202.51057169677057</v>
       </c>
       <c r="H41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J41">
@@ -17884,7 +17928,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22.28705964231527</v>
       </c>
       <c r="B42" s="2">
@@ -17903,15 +17947,15 @@
         <v>50.305687203791472</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50.126283216954718</v>
       </c>
       <c r="H42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J42">
@@ -17920,7 +17964,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.77689321320809757</v>
       </c>
       <c r="B43" s="2">
@@ -17939,15 +17983,15 @@
         <v>2.5312145289443815</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.9385539855777347</v>
       </c>
       <c r="H43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J43">
@@ -17956,7 +18000,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.913136469656989E-2</v>
       </c>
       <c r="B44" s="2">
@@ -17975,15 +18019,15 @@
         <v>0.77437325905292487</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.22562674094707513</v>
       </c>
       <c r="H44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J44">
@@ -17992,7 +18036,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.82088932386601443</v>
       </c>
       <c r="B45" s="2">
@@ -18011,15 +18055,15 @@
         <v>2.8460431654676261</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.997225816469127</v>
       </c>
       <c r="H45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J45">
@@ -18028,7 +18072,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.25560999932525436</v>
       </c>
       <c r="B46" s="2">
@@ -18047,15 +18091,15 @@
         <v>1.1565995525727069</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.65111681655981457</v>
       </c>
       <c r="H46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J46">
@@ -18064,7 +18108,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.22491986882128107</v>
       </c>
       <c r="B47" s="2">
@@ -18083,15 +18127,15 @@
         <v>1.3469387755102042</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.47218751446156704</v>
       </c>
       <c r="H47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J47">
@@ -18100,7 +18144,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.53409794449561465</v>
       </c>
       <c r="B48" s="2">
@@ -18119,15 +18163,15 @@
         <v>1.7084377610693398</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3685459820534347</v>
       </c>
       <c r="H48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J48">
@@ -18136,7 +18180,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.0099405465629445</v>
       </c>
       <c r="B49" s="2">
@@ -18155,15 +18199,15 @@
         <v>14.340956340956341</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.561870842536123</v>
       </c>
       <c r="H49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J49">
@@ -18172,7 +18216,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.59132770704580973</v>
       </c>
       <c r="B50" s="2">
@@ -18191,15 +18235,15 @@
         <v>2.3121301775147929</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4958947515843284</v>
       </c>
       <c r="H50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J50">
@@ -18208,7 +18252,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8313362324252527</v>
       </c>
       <c r="B51" s="2">
@@ -18227,15 +18271,15 @@
         <v>7.1931464174454831</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.6076189736771447</v>
       </c>
       <c r="H51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J51">
@@ -18244,7 +18288,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.0628024839942682</v>
       </c>
       <c r="B52" s="2">
@@ -18263,15 +18307,15 @@
         <v>7.9597615499254841</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.0024964407950403</v>
       </c>
       <c r="H52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J52">
@@ -18280,7 +18324,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.0696315584977798</v>
       </c>
       <c r="B53" s="2">
@@ -18299,15 +18343,15 @@
         <v>7.4788844621513944</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.0484151045221504</v>
       </c>
       <c r="H53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J53">
@@ -18316,7 +18360,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.19063200891942986</v>
       </c>
       <c r="B54" s="2">
@@ -18335,15 +18379,15 @@
         <v>1.2181818181818183</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.49834221722333605</v>
       </c>
       <c r="H54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J54">
@@ -18352,7 +18396,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.134673804452558</v>
       </c>
       <c r="B55" s="2">
@@ -18371,15 +18415,15 @@
         <v>0.98224852071005919</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.36982248520710059</v>
       </c>
       <c r="H55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J55">
@@ -18388,7 +18432,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.1156500854011542</v>
       </c>
       <c r="B56" s="2">
@@ -18407,15 +18451,15 @@
         <v>10.022334293948127</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.5463524321271667</v>
       </c>
       <c r="H56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J56">
@@ -18424,7 +18468,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.6317585689577365</v>
       </c>
       <c r="B57" s="2">
@@ -18443,15 +18487,15 @@
         <v>4.3311258278145699</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.8128886219634124</v>
       </c>
       <c r="H57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J57">
@@ -18460,7 +18504,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.25968632104862727</v>
       </c>
       <c r="B58" s="2">
@@ -18479,15 +18523,15 @@
         <v>1.5403458213256485</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.69530932073183904</v>
       </c>
       <c r="H58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J58">
@@ -18496,7 +18540,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.48395218324291939</v>
       </c>
       <c r="B59" s="2">
@@ -18515,15 +18559,15 @@
         <v>1.858880778588808</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2195286554069655</v>
       </c>
       <c r="H59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J59">
@@ -18532,7 +18576,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8524102575616457</v>
       </c>
       <c r="B60" s="2">
@@ -18551,15 +18595,15 @@
         <v>4.9363336992316134</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.3603752646336211</v>
       </c>
       <c r="H60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J60">
@@ -18568,7 +18612,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3289058698737257</v>
       </c>
       <c r="B61" s="2">
@@ -18587,15 +18631,15 @@
         <v>3.3025038323965252</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.1189456816704784</v>
       </c>
       <c r="H61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.122921300898827</v>
       </c>
       <c r="I61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J61">
@@ -18604,7 +18648,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <f t="shared" ref="A62:A80" si="5">_xlfn.STDEV.S(B62:F62)</f>
+        <f t="shared" ref="A62:A80" si="7">_xlfn.STDEV.S(B62:F62)</f>
         <v>6.2588040748783049</v>
       </c>
       <c r="B62" s="2">
@@ -18623,15 +18667,15 @@
         <v>14.796723752792257</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" ref="G62:G80" si="6">MAX(B62:F62)-MIN(B62:F62)</f>
+        <f t="shared" ref="G62:G80" si="8">MAX(B62:F62)-MIN(B62:F62)</f>
         <v>14.20015535173418</v>
       </c>
       <c r="H62">
-        <f t="shared" ref="H62:H80" si="7">$G$81</f>
+        <f t="shared" ref="H62:H80" si="9">$G$81</f>
         <v>16.122921300898827</v>
       </c>
       <c r="I62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J62">
@@ -18640,7 +18684,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.7109173371491728</v>
       </c>
       <c r="B63" s="2">
@@ -18659,15 +18703,15 @@
         <v>11.335414808206959</v>
       </c>
       <c r="G63" s="2">
+        <f t="shared" si="8"/>
+        <v>10.732219464429381</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I63">
         <f t="shared" si="6"/>
-        <v>10.732219464429381</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I63">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J63">
@@ -18676,7 +18720,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.446856631036902</v>
       </c>
       <c r="B64" s="2">
@@ -18695,15 +18739,15 @@
         <v>4.0637813211845106</v>
       </c>
       <c r="G64" s="2">
+        <f t="shared" si="8"/>
+        <v>3.4138780932020905</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="6"/>
-        <v>3.4138780932020905</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I64">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J64">
@@ -18712,7 +18756,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.291982508785906</v>
       </c>
       <c r="B65" s="2">
@@ -18731,15 +18775,15 @@
         <v>3.8243727598566313</v>
       </c>
       <c r="G65" s="2">
+        <f t="shared" si="8"/>
+        <v>3.0706996741220354</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I65">
         <f t="shared" si="6"/>
-        <v>3.0706996741220354</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J65">
@@ -18748,7 +18792,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.699490542325534</v>
       </c>
       <c r="B66" s="2">
@@ -18767,15 +18811,15 @@
         <v>4.4050944946589974</v>
       </c>
       <c r="G66" s="2">
+        <f t="shared" si="8"/>
+        <v>3.9797318054485582</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I66">
         <f t="shared" si="6"/>
-        <v>3.9797318054485582</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J66">
@@ -18784,7 +18828,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26864349695391382</v>
       </c>
       <c r="B67" s="2">
@@ -18803,15 +18847,15 @@
         <v>1.2831257078142695</v>
       </c>
       <c r="G67" s="2">
+        <f t="shared" si="8"/>
+        <v>0.71110276020310659</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I67">
         <f t="shared" si="6"/>
-        <v>0.71110276020310659</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J67">
@@ -18820,7 +18864,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22376017508062507</v>
       </c>
       <c r="B68" s="2">
@@ -18839,15 +18883,15 @@
         <v>1.4555160142348753</v>
       </c>
       <c r="G68" s="2">
+        <f t="shared" si="8"/>
+        <v>0.52290371195906804</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="6"/>
-        <v>0.52290371195906804</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I68">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J68">
@@ -18856,7 +18900,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8439638233113023</v>
       </c>
       <c r="B69" s="2">
@@ -18875,15 +18919,15 @@
         <v>11.395565927654609</v>
       </c>
       <c r="G69" s="2">
+        <f t="shared" si="8"/>
+        <v>11.041218655073395</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="6"/>
-        <v>11.041218655073395</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J69">
@@ -18892,7 +18936,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.9430534885899506</v>
       </c>
       <c r="B70" s="2">
@@ -18911,15 +18955,15 @@
         <v>16.556701030927837</v>
       </c>
       <c r="G70" s="2">
+        <f t="shared" si="8"/>
+        <v>15.76125252417898</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="6"/>
-        <v>15.76125252417898</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J70">
@@ -18928,7 +18972,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21930607343518596</v>
       </c>
       <c r="B71" s="2">
@@ -18947,15 +18991,15 @@
         <v>0.86412213740457999</v>
       </c>
       <c r="G71" s="2">
+        <f t="shared" si="8"/>
+        <v>0.50579803041780758</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="6"/>
-        <v>0.50579803041780758</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J71">
@@ -18964,7 +19008,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6730714693666193</v>
       </c>
       <c r="B72" s="2">
@@ -18983,15 +19027,15 @@
         <v>4.5890243902439023</v>
       </c>
       <c r="G72" s="2">
+        <f t="shared" si="8"/>
+        <v>3.8915229030339082</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I72">
         <f t="shared" si="6"/>
-        <v>3.8915229030339082</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I72">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J72">
@@ -19000,7 +19044,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8061958929551063</v>
       </c>
       <c r="B73" s="2">
@@ -19019,15 +19063,15 @@
         <v>4.9594272076372317</v>
       </c>
       <c r="G73" s="2">
+        <f t="shared" si="8"/>
+        <v>4.248847978765216</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="6"/>
-        <v>4.248847978765216</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J73">
@@ -19036,7 +19080,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.21179734613522727</v>
       </c>
       <c r="B74" s="2">
@@ -19055,15 +19099,15 @@
         <v>1.171628721541156</v>
       </c>
       <c r="G74" s="2">
+        <f t="shared" si="8"/>
+        <v>0.54888495618649213</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="6"/>
-        <v>0.54888495618649213</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J74">
@@ -19072,7 +19116,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0618860942250605</v>
       </c>
       <c r="B75" s="2">
@@ -19091,15 +19135,15 @@
         <v>3.1184882533197138</v>
       </c>
       <c r="G75" s="2">
+        <f t="shared" si="8"/>
+        <v>2.5895042052666777</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="6"/>
-        <v>2.5895042052666777</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J75">
@@ -19108,7 +19152,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.2146319924666355</v>
       </c>
       <c r="B76" s="2">
@@ -19127,15 +19171,15 @@
         <v>1.4285714285714286</v>
       </c>
       <c r="G76" s="2">
+        <f t="shared" si="8"/>
+        <v>0.58231585938953556</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="6"/>
-        <v>0.58231585938953556</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J76">
@@ -19144,7 +19188,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4079856174035661</v>
       </c>
       <c r="B77" s="2">
@@ -19163,15 +19207,15 @@
         <v>3.9407407407407411</v>
       </c>
       <c r="G77" s="2">
+        <f t="shared" si="8"/>
+        <v>3.3483721060440641</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I77">
         <f t="shared" si="6"/>
-        <v>3.3483721060440641</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J77">
@@ -19180,7 +19224,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.5122633703995119</v>
       </c>
       <c r="B78" s="2">
@@ -19199,15 +19243,15 @@
         <v>4.026128266033254</v>
       </c>
       <c r="G78" s="2">
+        <f t="shared" si="8"/>
+        <v>3.6775758555989988</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I78">
         <f t="shared" si="6"/>
-        <v>3.6775758555989988</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J78">
@@ -19216,7 +19260,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0693518824637709</v>
       </c>
       <c r="B79" s="2">
@@ -19235,15 +19279,15 @@
         <v>2.9757869249394671</v>
       </c>
       <c r="G79" s="2">
+        <f t="shared" si="8"/>
+        <v>2.660502331738019</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I79">
         <f t="shared" si="6"/>
-        <v>2.660502331738019</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J79">
@@ -19252,7 +19296,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.28968324464479756</v>
       </c>
       <c r="B80" s="2">
@@ -19271,15 +19315,15 @@
         <v>1.5412719891745603</v>
       </c>
       <c r="G80" s="2">
+        <f t="shared" si="8"/>
+        <v>0.74657630818078791</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="9"/>
+        <v>16.122921300898827</v>
+      </c>
+      <c r="I80">
         <f t="shared" si="6"/>
-        <v>0.74657630818078791</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="7"/>
-        <v>16.122921300898827</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="4"/>
         <v>34.083855630100118</v>
       </c>
       <c r="J80">
@@ -19412,15 +19456,15 @@
         <v>9.6023765996343684</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" ref="G88:G92" si="8">MAX(B88:F88)-MIN(B88:F88)</f>
+        <f t="shared" ref="G88:G92" si="10">MAX(B88:F88)-MIN(B88:F88)</f>
         <v>8.9396709323583181</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" ref="H88:H92" si="9">$G$93</f>
+        <f t="shared" ref="H88:H92" si="11">$G$93</f>
         <v>9.6817847423378858</v>
       </c>
       <c r="I88">
-        <f t="shared" ref="I88:I92" si="10">H88*2.114</f>
+        <f t="shared" ref="I88:I92" si="12">H88*2.114</f>
         <v>20.46729294530229</v>
       </c>
       <c r="J88">
@@ -19444,15 +19488,15 @@
         <v>23.571476622939795</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>23.105280861083084</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.6817847423378858</v>
       </c>
       <c r="I89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20.46729294530229</v>
       </c>
       <c r="J89">
@@ -19476,15 +19520,15 @@
         <v>1.6093514328808445</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0105580693815988</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.6817847423378858</v>
       </c>
       <c r="I90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20.46729294530229</v>
       </c>
       <c r="J90">
@@ -19508,15 +19552,15 @@
         <v>2.1639344262295079</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.509687034277198</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.6817847423378858</v>
       </c>
       <c r="I91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20.46729294530229</v>
       </c>
       <c r="J91">
@@ -19540,15 +19584,15 @@
         <v>2.7961783439490446</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.2600849256900215</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.6817847423378858</v>
       </c>
       <c r="I92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>20.46729294530229</v>
       </c>
       <c r="J92">
@@ -19669,15 +19713,15 @@
         <v>15.961048301031118</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" ref="G99:G100" si="11">MAX(B99:F99)-MIN(B99:F99)</f>
+        <f t="shared" ref="G99:G100" si="13">MAX(B99:F99)-MIN(B99:F99)</f>
         <v>15.766054719944167</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" ref="H99:H101" si="12">$G$102</f>
+        <f t="shared" ref="H99:H101" si="14">$G$102</f>
         <v>6.0540965190831653</v>
       </c>
       <c r="I99">
-        <f t="shared" ref="I99:I101" si="13">H99*2.114</f>
+        <f t="shared" ref="I99:I101" si="15">H99*2.114</f>
         <v>12.798360041341811</v>
       </c>
       <c r="J99">
@@ -19701,15 +19745,15 @@
         <v>1.7336026583304409</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6911806106384142</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.0540965190831653</v>
       </c>
       <c r="I100">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>12.798360041341811</v>
       </c>
       <c r="J100">
@@ -19737,11 +19781,11 @@
         <v>4.7414244974926048</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>6.0540965190831653</v>
       </c>
       <c r="I101">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>12.798360041341811</v>
       </c>
       <c r="J101">
@@ -19863,15 +19907,15 @@
         <v>18.110336817653891</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" ref="G107:G108" si="14">MAX(B107:F107)-MIN(B107:F107)</f>
+        <f t="shared" ref="G107:G108" si="16">MAX(B107:F107)-MIN(B107:F107)</f>
         <v>17.455865272938443</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" ref="H107:H108" si="15">$G$109</f>
+        <f t="shared" ref="H107:H108" si="17">$G$109</f>
         <v>7.0296017132550546</v>
       </c>
       <c r="I107">
-        <f t="shared" ref="I107:I108" si="16">H107*2.114</f>
+        <f t="shared" ref="I107:I108" si="18">H107*2.114</f>
         <v>14.860578021821185</v>
       </c>
       <c r="J107">
@@ -19895,15 +19939,15 @@
         <v>2.9241435562805873</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2.4804241435562808</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.0296017132550546</v>
       </c>
       <c r="I108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>14.860578021821185</v>
       </c>
       <c r="J108">
@@ -19911,22 +19955,42 @@
       </c>
     </row>
     <row r="109" spans="2:26">
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2">
+        <v>0.99501359927470534</v>
+      </c>
+      <c r="D109" s="2">
+        <v>0.63508612873980053</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1.4356300997280145</v>
+      </c>
+      <c r="F109" s="2">
+        <v>10.731187669990934</v>
+      </c>
       <c r="G109">
         <f>AVERAGE(G106:G108)</f>
         <v>7.0296017132550546</v>
       </c>
     </row>
     <row r="110" spans="2:26">
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2">
+        <v>0.82272727272727275</v>
+      </c>
+      <c r="D110" s="2">
+        <v>0.65151515151515149</v>
+      </c>
+      <c r="E110" s="2">
+        <v>0.71060606060606057</v>
+      </c>
+      <c r="F110" s="2">
+        <v>1.6121212121212121</v>
+      </c>
     </row>
     <row r="112" spans="2:26">
       <c r="U112" s="2"/>
@@ -20039,15 +20103,15 @@
         <v>1.0637931034482759</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" ref="G119:G121" si="17">MAX(B119:F119)-MIN(B119:F119)</f>
+        <f t="shared" ref="G119:G121" si="19">MAX(B119:F119)-MIN(B119:F119)</f>
         <v>0.41896551724137931</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" ref="H119:H121" si="18">$G$122</f>
+        <f t="shared" ref="H119:H121" si="20">$G$122</f>
         <v>1.3609801631894838</v>
       </c>
       <c r="I119">
-        <f t="shared" ref="I119:I121" si="19">H119*2.114</f>
+        <f t="shared" ref="I119:I121" si="21">H119*2.114</f>
         <v>2.8771120649825686</v>
       </c>
       <c r="J119">
@@ -20071,15 +20135,15 @@
         <v>1.1560509554140126</v>
       </c>
       <c r="G120" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.51433121019108263</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.3609801631894838</v>
       </c>
       <c r="I120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.8771120649825686</v>
       </c>
       <c r="J120">
@@ -20103,15 +20167,15 @@
         <v>4.5968523002421309</v>
       </c>
       <c r="G121" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.898305084745763</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.3609801631894838</v>
       </c>
       <c r="I121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.8771120649825686</v>
       </c>
       <c r="J121">
@@ -20119,11 +20183,21 @@
       </c>
     </row>
     <row r="122" spans="2:12">
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
+      <c r="B122" s="2">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2">
+        <v>0.61407491486946653</v>
+      </c>
+      <c r="D122" s="2">
+        <v>0.78395762391222101</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1.2444192205826714</v>
+      </c>
+      <c r="F122" s="2">
+        <v>16.76087779038971</v>
+      </c>
       <c r="G122" s="2">
         <f>AVERAGE(G118:G121)</f>
         <v>1.3609801631894838</v>
@@ -20230,11 +20304,11 @@
         <v>28.528021015761823</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" ref="G128:G129" si="20">MAX(B128:F128)-MIN(B128:F128)</f>
+        <f t="shared" ref="G128:G129" si="22">MAX(B128:F128)-MIN(B128:F128)</f>
         <v>27.990367775831874</v>
       </c>
       <c r="H128" s="2">
-        <f t="shared" ref="H128:H129" si="21">$G$130</f>
+        <f t="shared" ref="H128:H129" si="23">$G$130</f>
         <v>66.310494655351377</v>
       </c>
       <c r="I128">
@@ -20262,15 +20336,15 @@
         <v>56.132591093117412</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>55.371457489878544</v>
       </c>
       <c r="H129" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>66.310494655351377</v>
       </c>
       <c r="I129">
-        <f t="shared" ref="I129" si="22">H129*2.114</f>
+        <f t="shared" ref="I129" si="24">H129*2.114</f>
         <v>140.1803857014128</v>
       </c>
       <c r="J129">
@@ -20278,22 +20352,42 @@
       </c>
     </row>
     <row r="130" spans="2:10">
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
+      <c r="B130" s="2">
+        <v>1</v>
+      </c>
+      <c r="C130" s="2">
+        <v>0.74308300395256921</v>
+      </c>
+      <c r="D130" s="2">
+        <v>0.83596837944664026</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1.2509881422924902</v>
+      </c>
+      <c r="F130" s="2">
+        <v>7.329051383399209</v>
+      </c>
       <c r="G130">
         <f>AVERAGE(G127:G129)</f>
         <v>66.310494655351377</v>
       </c>
     </row>
     <row r="131" spans="2:10">
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
+      <c r="B131" s="2">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2">
+        <v>5.3073778177862796E-2</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0.34878661715614562</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1.7468211995048948</v>
+      </c>
+      <c r="F131" s="2">
+        <v>1.4652113574134502</v>
+      </c>
     </row>
     <row r="132" spans="2:10">
       <c r="B132" s="2"/>
@@ -20330,36 +20424,36 @@
     </row>
     <row r="135" spans="2:10">
       <c r="B135" s="2">
-        <v>1.012</v>
+        <v>1</v>
       </c>
       <c r="C135" s="2">
-        <v>0.752</v>
+        <v>0.74308300395256921</v>
       </c>
       <c r="D135" s="2">
-        <v>0.84599999999999997</v>
+        <v>0.83596837944664026</v>
       </c>
       <c r="E135" s="2">
-        <v>1.266</v>
+        <v>1.2509881422924902</v>
       </c>
       <c r="F135" s="2">
-        <v>7.4169999999999998</v>
+        <v>7.329051383399209</v>
       </c>
     </row>
     <row r="136" spans="2:10">
       <c r="B136" s="2">
-        <v>26.661000000000001</v>
+        <v>1</v>
       </c>
       <c r="C136" s="2">
-        <v>1.415</v>
+        <v>5.3073778177862796E-2</v>
       </c>
       <c r="D136" s="2">
-        <v>9.2989999999999995</v>
+        <v>0.34878661715614562</v>
       </c>
       <c r="E136" s="2">
-        <v>46.572000000000003</v>
+        <v>1.7468211995048948</v>
       </c>
       <c r="F136" s="2">
-        <v>39.064</v>
+        <v>1.4652113574134502</v>
       </c>
     </row>
     <row r="137" spans="2:10">
@@ -20418,36 +20512,36 @@
     </row>
     <row r="143" spans="2:10">
       <c r="B143" s="2">
-        <v>2.206</v>
+        <v>1</v>
       </c>
       <c r="C143" s="2">
-        <v>2.1949999999999998</v>
+        <v>0.99501359927470534</v>
       </c>
       <c r="D143" s="2">
-        <v>1.401</v>
+        <v>0.63508612873980053</v>
       </c>
       <c r="E143" s="2">
-        <v>3.1669999999999998</v>
+        <v>1.4356300997280145</v>
       </c>
       <c r="F143" s="2">
-        <v>23.672999999999998</v>
+        <v>10.731187669990934</v>
       </c>
     </row>
     <row r="144" spans="2:10">
       <c r="B144" s="2">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="C144" s="2">
-        <v>0.54300000000000004</v>
+        <v>0.82272727272727275</v>
       </c>
       <c r="D144" s="2">
-        <v>0.43</v>
+        <v>0.65151515151515149</v>
       </c>
       <c r="E144" s="2">
-        <v>0.46899999999999997</v>
+        <v>0.71060606060606057</v>
       </c>
       <c r="F144" s="2">
-        <v>1.0640000000000001</v>
+        <v>1.6121212121212121</v>
       </c>
     </row>
     <row r="146" spans="2:6" ht="16">
@@ -20478,19 +20572,19 @@
     </row>
     <row r="148" spans="2:6">
       <c r="B148" s="2">
-        <v>2.6429999999999998</v>
+        <v>1</v>
       </c>
       <c r="C148" s="2">
-        <v>1.623</v>
+        <v>0.61407491486946653</v>
       </c>
       <c r="D148" s="2">
-        <v>2.0720000000000001</v>
+        <v>0.78395762391222101</v>
       </c>
       <c r="E148" s="2">
-        <v>3.2890000000000001</v>
+        <v>1.2444192205826714</v>
       </c>
       <c r="F148" s="2">
-        <v>44.298999999999999</v>
+        <v>16.76087779038971</v>
       </c>
     </row>
     <row r="201" spans="2:10" ht="16">
@@ -20575,11 +20669,11 @@
         <v>1.1014285714285714</v>
       </c>
       <c r="H203" s="2">
-        <f t="shared" ref="H203:H266" si="23">$G$292</f>
+        <f t="shared" ref="H203:H266" si="25">$G$292</f>
         <v>13.247983172382199</v>
       </c>
       <c r="I203">
-        <f t="shared" ref="I203:I266" si="24">H203*2.114</f>
+        <f t="shared" ref="I203:I266" si="26">H203*2.114</f>
         <v>28.006236426415967</v>
       </c>
       <c r="J203">
@@ -20603,15 +20697,15 @@
         <v>1.5563463819691579</v>
       </c>
       <c r="G204" s="2">
-        <f t="shared" ref="G204:G267" si="25">MAX(B204:F204)-MIN(B204:F204)</f>
+        <f t="shared" ref="G204:G267" si="27">MAX(B204:F204)-MIN(B204:F204)</f>
         <v>1.0201660735468565</v>
       </c>
       <c r="H204" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I204">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J204">
@@ -20635,15 +20729,15 @@
         <v>5.5142617449664435</v>
       </c>
       <c r="G205" s="2">
+        <f t="shared" si="27"/>
+        <v>4.9437919463087256</v>
+      </c>
+      <c r="H205" s="2">
         <f t="shared" si="25"/>
-        <v>4.9437919463087256</v>
-      </c>
-      <c r="H205" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I205">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J205">
@@ -20667,15 +20761,15 @@
         <v>3.5515202702702706</v>
       </c>
       <c r="G206" s="2">
+        <f t="shared" si="27"/>
+        <v>3.0287162162162167</v>
+      </c>
+      <c r="H206" s="2">
         <f t="shared" si="25"/>
-        <v>3.0287162162162167</v>
-      </c>
-      <c r="H206" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I206">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J206">
@@ -20699,15 +20793,15 @@
         <v>4.4678841309823678</v>
       </c>
       <c r="G207" s="2">
+        <f t="shared" si="27"/>
+        <v>3.8847607052896729</v>
+      </c>
+      <c r="H207" s="2">
         <f t="shared" si="25"/>
-        <v>3.8847607052896729</v>
-      </c>
-      <c r="H207" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I207">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J207">
@@ -20731,15 +20825,15 @@
         <v>1.9349503858875412</v>
       </c>
       <c r="G208" s="2">
+        <f t="shared" si="27"/>
+        <v>1.412348401323043</v>
+      </c>
+      <c r="H208" s="2">
         <f t="shared" si="25"/>
-        <v>1.412348401323043</v>
-      </c>
-      <c r="H208" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I208">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J208">
@@ -20763,15 +20857,15 @@
         <v>1.2217245240761478</v>
       </c>
       <c r="G209" s="2">
+        <f t="shared" si="27"/>
+        <v>0.69652855543113112</v>
+      </c>
+      <c r="H209" s="2">
         <f t="shared" si="25"/>
-        <v>0.69652855543113112</v>
-      </c>
-      <c r="H209" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I209">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J209">
@@ -20795,15 +20889,15 @@
         <v>1.0181200453001134</v>
       </c>
       <c r="G210" s="2">
+        <f t="shared" si="27"/>
+        <v>0.56511891279728199</v>
+      </c>
+      <c r="H210" s="2">
         <f t="shared" si="25"/>
-        <v>0.56511891279728199</v>
-      </c>
-      <c r="H210" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I210">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J210">
@@ -20827,15 +20921,15 @@
         <v>0.85277777777777775</v>
       </c>
       <c r="G211" s="2">
+        <f t="shared" si="27"/>
+        <v>0.38888888888888884</v>
+      </c>
+      <c r="H211" s="2">
         <f t="shared" si="25"/>
-        <v>0.38888888888888884</v>
-      </c>
-      <c r="H211" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I211">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J211">
@@ -20859,15 +20953,15 @@
         <v>1.2341040462427746</v>
       </c>
       <c r="G212" s="2">
+        <f t="shared" si="27"/>
+        <v>0.63872832369942201</v>
+      </c>
+      <c r="H212" s="2">
         <f t="shared" si="25"/>
-        <v>0.63872832369942201</v>
-      </c>
-      <c r="H212" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I212">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J212">
@@ -20891,15 +20985,15 @@
         <v>1.5431472081218274</v>
       </c>
       <c r="G213" s="2">
+        <f t="shared" si="27"/>
+        <v>0.8883248730964467</v>
+      </c>
+      <c r="H213" s="2">
         <f t="shared" si="25"/>
-        <v>0.8883248730964467</v>
-      </c>
-      <c r="H213" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I213">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J213">
@@ -20923,15 +21017,15 @@
         <v>1.5813366960907944</v>
       </c>
       <c r="G214" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0491803278688525</v>
+      </c>
+      <c r="H214" s="2">
         <f t="shared" si="25"/>
-        <v>1.0491803278688525</v>
-      </c>
-      <c r="H214" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I214">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J214">
@@ -20955,15 +21049,15 @@
         <v>4.9194831013916502</v>
       </c>
       <c r="G215" s="2">
+        <f t="shared" si="27"/>
+        <v>4.4403578528827037</v>
+      </c>
+      <c r="H215" s="2">
         <f t="shared" si="25"/>
-        <v>4.4403578528827037</v>
-      </c>
-      <c r="H215" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I215">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J215">
@@ -20987,15 +21081,15 @@
         <v>32.43177331320404</v>
       </c>
       <c r="G216" s="2">
+        <f t="shared" si="27"/>
+        <v>31.907327836488211</v>
+      </c>
+      <c r="H216" s="2">
         <f t="shared" si="25"/>
-        <v>31.907327836488211</v>
-      </c>
-      <c r="H216" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I216">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J216">
@@ -21019,15 +21113,15 @@
         <v>0.9115168539325843</v>
       </c>
       <c r="G217" s="2">
+        <f t="shared" si="27"/>
+        <v>0.45224719101123589</v>
+      </c>
+      <c r="H217" s="2">
         <f t="shared" si="25"/>
-        <v>0.45224719101123589</v>
-      </c>
-      <c r="H217" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I217">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J217">
@@ -21051,15 +21145,15 @@
         <v>1.4994011976047905</v>
       </c>
       <c r="G218" s="2">
+        <f t="shared" si="27"/>
+        <v>0.94251497005988027</v>
+      </c>
+      <c r="H218" s="2">
         <f t="shared" si="25"/>
-        <v>0.94251497005988027</v>
-      </c>
-      <c r="H218" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I218">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J218">
@@ -21083,15 +21177,15 @@
         <v>1.7980364656381489</v>
       </c>
       <c r="G219" s="2">
+        <f t="shared" si="27"/>
+        <v>1.2131837307152877</v>
+      </c>
+      <c r="H219" s="2">
         <f t="shared" si="25"/>
-        <v>1.2131837307152877</v>
-      </c>
-      <c r="H219" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I219">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J219">
@@ -21115,15 +21209,15 @@
         <v>2.5005500550055006</v>
       </c>
       <c r="G220" s="2">
+        <f t="shared" si="27"/>
+        <v>2.0011001100110013</v>
+      </c>
+      <c r="H220" s="2">
         <f t="shared" si="25"/>
-        <v>2.0011001100110013</v>
-      </c>
-      <c r="H220" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I220">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J220">
@@ -21147,15 +21241,15 @@
         <v>1.7510373443983402</v>
       </c>
       <c r="G221" s="2">
+        <f t="shared" si="27"/>
+        <v>1.0145180389838711</v>
+      </c>
+      <c r="H221" s="2">
         <f t="shared" si="25"/>
-        <v>1.0145180389838711</v>
-      </c>
-      <c r="H221" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I221">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J221">
@@ -21179,15 +21273,15 @@
         <v>0.7478108581436077</v>
       </c>
       <c r="G222" s="2">
+        <f t="shared" si="27"/>
+        <v>0.70599403142549566</v>
+      </c>
+      <c r="H222" s="2">
         <f t="shared" si="25"/>
-        <v>0.70599403142549566</v>
-      </c>
-      <c r="H222" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I222">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J222">
@@ -21211,15 +21305,15 @@
         <v>1.6382681564245811</v>
       </c>
       <c r="G223" s="2">
+        <f t="shared" si="27"/>
+        <v>0.83265971723728982</v>
+      </c>
+      <c r="H223" s="2">
         <f t="shared" si="25"/>
-        <v>0.83265971723728982</v>
-      </c>
-      <c r="H223" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I223">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J223">
@@ -21243,15 +21337,15 @@
         <v>148.20187839604648</v>
       </c>
       <c r="G224" s="2">
+        <f t="shared" si="27"/>
+        <v>148.19804680107367</v>
+      </c>
+      <c r="H224" s="2">
         <f t="shared" si="25"/>
-        <v>148.19804680107367</v>
-      </c>
-      <c r="H224" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I224">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J224">
@@ -21275,15 +21369,15 @@
         <v>12.20675453047776</v>
       </c>
       <c r="G225" s="2">
+        <f t="shared" si="27"/>
+        <v>11.696507522072254</v>
+      </c>
+      <c r="H225" s="2">
         <f t="shared" si="25"/>
-        <v>11.696507522072254</v>
-      </c>
-      <c r="H225" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I225">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J225">
@@ -21307,15 +21401,15 @@
         <v>21.030041152263372</v>
       </c>
       <c r="G226" s="2">
+        <f t="shared" si="27"/>
+        <v>20.829868414367727</v>
+      </c>
+      <c r="H226" s="2">
         <f t="shared" si="25"/>
-        <v>20.829868414367727</v>
-      </c>
-      <c r="H226" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I226">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J226">
@@ -21339,15 +21433,15 @@
         <v>2.1827794561933533</v>
       </c>
       <c r="G227" s="2">
+        <f t="shared" si="27"/>
+        <v>1.1833362236562279</v>
+      </c>
+      <c r="H227" s="2">
         <f t="shared" si="25"/>
-        <v>1.1833362236562279</v>
-      </c>
-      <c r="H227" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I227">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J227">
@@ -21371,15 +21465,15 @@
         <v>1.3525091799265607</v>
       </c>
       <c r="G228" s="2">
+        <f t="shared" si="27"/>
+        <v>0.70680565522428096</v>
+      </c>
+      <c r="H228" s="2">
         <f t="shared" si="25"/>
-        <v>0.70680565522428096</v>
-      </c>
-      <c r="H228" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I228">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J228">
@@ -21403,15 +21497,15 @@
         <v>2.4748272458045415</v>
       </c>
       <c r="G229" s="2">
+        <f t="shared" si="27"/>
+        <v>2.0099915316093164</v>
+      </c>
+      <c r="H229" s="2">
         <f t="shared" si="25"/>
-        <v>2.0099915316093164</v>
-      </c>
-      <c r="H229" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I229">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J229">
@@ -21435,15 +21529,15 @@
         <v>4.3471760797342194</v>
       </c>
       <c r="G230" s="2">
+        <f t="shared" si="27"/>
+        <v>3.7953057913268067</v>
+      </c>
+      <c r="H230" s="2">
         <f t="shared" si="25"/>
-        <v>3.7953057913268067</v>
-      </c>
-      <c r="H230" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I230">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J230">
@@ -21467,15 +21561,15 @@
         <v>226.92311977715877</v>
       </c>
       <c r="G231" s="2">
+        <f t="shared" si="27"/>
+        <v>226.43491748201831</v>
+      </c>
+      <c r="H231" s="2">
         <f t="shared" si="25"/>
-        <v>226.43491748201831</v>
-      </c>
-      <c r="H231" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I231">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J231">
@@ -21499,15 +21593,15 @@
         <v>202.88813229571983</v>
       </c>
       <c r="G232" s="2">
+        <f t="shared" si="27"/>
+        <v>202.51057169677057</v>
+      </c>
+      <c r="H232" s="2">
         <f t="shared" si="25"/>
-        <v>202.51057169677057</v>
-      </c>
-      <c r="H232" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I232">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J232">
@@ -21531,15 +21625,15 @@
         <v>50.305687203791472</v>
       </c>
       <c r="G233" s="2">
+        <f t="shared" si="27"/>
+        <v>50.126283216954718</v>
+      </c>
+      <c r="H233" s="2">
         <f t="shared" si="25"/>
-        <v>50.126283216954718</v>
-      </c>
-      <c r="H233" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I233">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J233">
@@ -21563,15 +21657,15 @@
         <v>2.5312145289443815</v>
       </c>
       <c r="G234" s="2">
+        <f t="shared" si="27"/>
+        <v>1.9385539855777347</v>
+      </c>
+      <c r="H234" s="2">
         <f t="shared" si="25"/>
-        <v>1.9385539855777347</v>
-      </c>
-      <c r="H234" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I234">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J234">
@@ -21595,15 +21689,15 @@
         <v>0.77437325905292487</v>
       </c>
       <c r="G235" s="2">
+        <f t="shared" si="27"/>
+        <v>0.22562674094707513</v>
+      </c>
+      <c r="H235" s="2">
         <f t="shared" si="25"/>
-        <v>0.22562674094707513</v>
-      </c>
-      <c r="H235" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I235">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J235">
@@ -21627,15 +21721,15 @@
         <v>2.8460431654676261</v>
       </c>
       <c r="G236" s="2">
+        <f t="shared" si="27"/>
+        <v>1.997225816469127</v>
+      </c>
+      <c r="H236" s="2">
         <f t="shared" si="25"/>
-        <v>1.997225816469127</v>
-      </c>
-      <c r="H236" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I236">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J236">
@@ -21659,15 +21753,15 @@
         <v>1.1565995525727069</v>
       </c>
       <c r="G237" s="2">
+        <f t="shared" si="27"/>
+        <v>0.65111681655981457</v>
+      </c>
+      <c r="H237" s="2">
         <f t="shared" si="25"/>
-        <v>0.65111681655981457</v>
-      </c>
-      <c r="H237" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I237">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J237">
@@ -21691,15 +21785,15 @@
         <v>1.3469387755102042</v>
       </c>
       <c r="G238" s="2">
+        <f t="shared" si="27"/>
+        <v>0.47218751446156704</v>
+      </c>
+      <c r="H238" s="2">
         <f t="shared" si="25"/>
-        <v>0.47218751446156704</v>
-      </c>
-      <c r="H238" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I238">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J238">
@@ -21723,15 +21817,15 @@
         <v>1.7084377610693398</v>
       </c>
       <c r="G239" s="2">
+        <f t="shared" si="27"/>
+        <v>1.3685459820534347</v>
+      </c>
+      <c r="H239" s="2">
         <f t="shared" si="25"/>
-        <v>1.3685459820534347</v>
-      </c>
-      <c r="H239" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I239">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J239">
@@ -21755,15 +21849,15 @@
         <v>14.340956340956341</v>
       </c>
       <c r="G240" s="2">
+        <f t="shared" si="27"/>
+        <v>13.561870842536123</v>
+      </c>
+      <c r="H240" s="2">
         <f t="shared" si="25"/>
-        <v>13.561870842536123</v>
-      </c>
-      <c r="H240" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I240">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J240">
@@ -21787,15 +21881,15 @@
         <v>2.3121301775147929</v>
       </c>
       <c r="G241" s="2">
+        <f t="shared" si="27"/>
+        <v>1.4958947515843284</v>
+      </c>
+      <c r="H241" s="2">
         <f t="shared" si="25"/>
-        <v>1.4958947515843284</v>
-      </c>
-      <c r="H241" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I241">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J241">
@@ -21819,15 +21913,15 @@
         <v>7.1931464174454831</v>
       </c>
       <c r="G242" s="2">
+        <f t="shared" si="27"/>
+        <v>6.6076189736771447</v>
+      </c>
+      <c r="H242" s="2">
         <f t="shared" si="25"/>
-        <v>6.6076189736771447</v>
-      </c>
-      <c r="H242" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I242">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J242">
@@ -21851,15 +21945,15 @@
         <v>7.9597615499254841</v>
       </c>
       <c r="G243" s="2">
+        <f t="shared" si="27"/>
+        <v>7.0024964407950403</v>
+      </c>
+      <c r="H243" s="2">
         <f t="shared" si="25"/>
-        <v>7.0024964407950403</v>
-      </c>
-      <c r="H243" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I243">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J243">
@@ -21883,15 +21977,15 @@
         <v>7.4788844621513944</v>
       </c>
       <c r="G244" s="2">
+        <f t="shared" si="27"/>
+        <v>7.0484151045221504</v>
+      </c>
+      <c r="H244" s="2">
         <f t="shared" si="25"/>
-        <v>7.0484151045221504</v>
-      </c>
-      <c r="H244" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I244">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J244">
@@ -21915,15 +22009,15 @@
         <v>1.2181818181818183</v>
       </c>
       <c r="G245" s="2">
+        <f t="shared" si="27"/>
+        <v>0.49834221722333605</v>
+      </c>
+      <c r="H245" s="2">
         <f t="shared" si="25"/>
-        <v>0.49834221722333605</v>
-      </c>
-      <c r="H245" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I245">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J245">
@@ -21947,15 +22041,15 @@
         <v>0.98224852071005919</v>
       </c>
       <c r="G246" s="2">
+        <f t="shared" si="27"/>
+        <v>0.36982248520710059</v>
+      </c>
+      <c r="H246" s="2">
         <f t="shared" si="25"/>
-        <v>0.36982248520710059</v>
-      </c>
-      <c r="H246" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I246">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J246">
@@ -21979,15 +22073,15 @@
         <v>10.022334293948127</v>
       </c>
       <c r="G247" s="2">
+        <f t="shared" si="27"/>
+        <v>9.5463524321271667</v>
+      </c>
+      <c r="H247" s="2">
         <f t="shared" si="25"/>
-        <v>9.5463524321271667</v>
-      </c>
-      <c r="H247" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I247">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J247">
@@ -22011,15 +22105,15 @@
         <v>4.3311258278145699</v>
       </c>
       <c r="G248" s="2">
+        <f t="shared" si="27"/>
+        <v>3.8128886219634124</v>
+      </c>
+      <c r="H248" s="2">
         <f t="shared" si="25"/>
-        <v>3.8128886219634124</v>
-      </c>
-      <c r="H248" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I248">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J248">
@@ -22043,15 +22137,15 @@
         <v>1.5403458213256485</v>
       </c>
       <c r="G249" s="2">
+        <f t="shared" si="27"/>
+        <v>0.69530932073183904</v>
+      </c>
+      <c r="H249" s="2">
         <f t="shared" si="25"/>
-        <v>0.69530932073183904</v>
-      </c>
-      <c r="H249" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I249">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J249">
@@ -22075,15 +22169,15 @@
         <v>1.858880778588808</v>
       </c>
       <c r="G250" s="2">
+        <f t="shared" si="27"/>
+        <v>1.2195286554069655</v>
+      </c>
+      <c r="H250" s="2">
         <f t="shared" si="25"/>
-        <v>1.2195286554069655</v>
-      </c>
-      <c r="H250" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I250">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J250">
@@ -22107,15 +22201,15 @@
         <v>4.9363336992316134</v>
       </c>
       <c r="G251" s="2">
+        <f t="shared" si="27"/>
+        <v>4.3603752646336211</v>
+      </c>
+      <c r="H251" s="2">
         <f t="shared" si="25"/>
-        <v>4.3603752646336211</v>
-      </c>
-      <c r="H251" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I251">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J251">
@@ -22139,15 +22233,15 @@
         <v>3.3025038323965252</v>
       </c>
       <c r="G252" s="2">
+        <f t="shared" si="27"/>
+        <v>3.1189456816704784</v>
+      </c>
+      <c r="H252" s="2">
         <f t="shared" si="25"/>
-        <v>3.1189456816704784</v>
-      </c>
-      <c r="H252" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I252">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J252">
@@ -22171,15 +22265,15 @@
         <v>14.796723752792257</v>
       </c>
       <c r="G253" s="2">
+        <f t="shared" si="27"/>
+        <v>14.20015535173418</v>
+      </c>
+      <c r="H253" s="2">
         <f t="shared" si="25"/>
-        <v>14.20015535173418</v>
-      </c>
-      <c r="H253" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I253">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J253">
@@ -22203,15 +22297,15 @@
         <v>11.335414808206959</v>
       </c>
       <c r="G254" s="2">
+        <f t="shared" si="27"/>
+        <v>10.732219464429381</v>
+      </c>
+      <c r="H254" s="2">
         <f t="shared" si="25"/>
-        <v>10.732219464429381</v>
-      </c>
-      <c r="H254" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I254">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J254">
@@ -22235,15 +22329,15 @@
         <v>4.0637813211845106</v>
       </c>
       <c r="G255" s="2">
+        <f t="shared" si="27"/>
+        <v>3.4138780932020905</v>
+      </c>
+      <c r="H255" s="2">
         <f t="shared" si="25"/>
-        <v>3.4138780932020905</v>
-      </c>
-      <c r="H255" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I255">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J255">
@@ -22267,15 +22361,15 @@
         <v>3.8243727598566313</v>
       </c>
       <c r="G256" s="2">
+        <f t="shared" si="27"/>
+        <v>3.0706996741220354</v>
+      </c>
+      <c r="H256" s="2">
         <f t="shared" si="25"/>
-        <v>3.0706996741220354</v>
-      </c>
-      <c r="H256" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I256">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J256">
@@ -22299,15 +22393,15 @@
         <v>4.4050944946589974</v>
       </c>
       <c r="G257" s="2">
+        <f t="shared" si="27"/>
+        <v>3.9797318054485582</v>
+      </c>
+      <c r="H257" s="2">
         <f t="shared" si="25"/>
-        <v>3.9797318054485582</v>
-      </c>
-      <c r="H257" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I257">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J257">
@@ -22331,15 +22425,15 @@
         <v>1.2831257078142695</v>
       </c>
       <c r="G258" s="2">
+        <f t="shared" si="27"/>
+        <v>0.71110276020310659</v>
+      </c>
+      <c r="H258" s="2">
         <f t="shared" si="25"/>
-        <v>0.71110276020310659</v>
-      </c>
-      <c r="H258" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I258">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J258">
@@ -22363,15 +22457,15 @@
         <v>1.4555160142348753</v>
       </c>
       <c r="G259" s="2">
+        <f t="shared" si="27"/>
+        <v>0.52290371195906804</v>
+      </c>
+      <c r="H259" s="2">
         <f t="shared" si="25"/>
-        <v>0.52290371195906804</v>
-      </c>
-      <c r="H259" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I259">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J259">
@@ -22395,15 +22489,15 @@
         <v>11.395565927654609</v>
       </c>
       <c r="G260" s="2">
+        <f t="shared" si="27"/>
+        <v>11.041218655073395</v>
+      </c>
+      <c r="H260" s="2">
         <f t="shared" si="25"/>
-        <v>11.041218655073395</v>
-      </c>
-      <c r="H260" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I260">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J260">
@@ -22427,15 +22521,15 @@
         <v>16.556701030927837</v>
       </c>
       <c r="G261" s="2">
+        <f t="shared" si="27"/>
+        <v>15.76125252417898</v>
+      </c>
+      <c r="H261" s="2">
         <f t="shared" si="25"/>
-        <v>15.76125252417898</v>
-      </c>
-      <c r="H261" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I261">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J261">
@@ -22459,15 +22553,15 @@
         <v>0.86412213740457999</v>
       </c>
       <c r="G262" s="2">
+        <f t="shared" si="27"/>
+        <v>0.50579803041780758</v>
+      </c>
+      <c r="H262" s="2">
         <f t="shared" si="25"/>
-        <v>0.50579803041780758</v>
-      </c>
-      <c r="H262" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I262">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J262">
@@ -22491,15 +22585,15 @@
         <v>4.5890243902439023</v>
       </c>
       <c r="G263" s="2">
+        <f t="shared" si="27"/>
+        <v>3.8915229030339082</v>
+      </c>
+      <c r="H263" s="2">
         <f t="shared" si="25"/>
-        <v>3.8915229030339082</v>
-      </c>
-      <c r="H263" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I263">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J263">
@@ -22523,15 +22617,15 @@
         <v>4.9594272076372317</v>
       </c>
       <c r="G264" s="2">
+        <f t="shared" si="27"/>
+        <v>4.248847978765216</v>
+      </c>
+      <c r="H264" s="2">
         <f t="shared" si="25"/>
-        <v>4.248847978765216</v>
-      </c>
-      <c r="H264" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I264">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J264">
@@ -22555,15 +22649,15 @@
         <v>1.171628721541156</v>
       </c>
       <c r="G265" s="2">
+        <f t="shared" si="27"/>
+        <v>0.54888495618649213</v>
+      </c>
+      <c r="H265" s="2">
         <f t="shared" si="25"/>
-        <v>0.54888495618649213</v>
-      </c>
-      <c r="H265" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I265">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J265">
@@ -22587,15 +22681,15 @@
         <v>3.1184882533197138</v>
       </c>
       <c r="G266" s="2">
+        <f t="shared" si="27"/>
+        <v>2.5895042052666777</v>
+      </c>
+      <c r="H266" s="2">
         <f t="shared" si="25"/>
-        <v>2.5895042052666777</v>
-      </c>
-      <c r="H266" s="2">
-        <f t="shared" si="23"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I266">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J266">
@@ -22619,15 +22713,15 @@
         <v>1.4285714285714286</v>
       </c>
       <c r="G267" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0.58231585938953556</v>
       </c>
       <c r="H267" s="2">
-        <f t="shared" ref="H267:H291" si="26">$G$292</f>
+        <f t="shared" ref="H267:H291" si="28">$G$292</f>
         <v>13.247983172382199</v>
       </c>
       <c r="I267">
-        <f t="shared" ref="I267:I291" si="27">H267*2.114</f>
+        <f t="shared" ref="I267:I291" si="29">H267*2.114</f>
         <v>28.006236426415967</v>
       </c>
       <c r="J267">
@@ -22651,15 +22745,15 @@
         <v>3.9407407407407411</v>
       </c>
       <c r="G268" s="2">
-        <f t="shared" ref="G268:G291" si="28">MAX(B268:F268)-MIN(B268:F268)</f>
+        <f t="shared" ref="G268:G291" si="30">MAX(B268:F268)-MIN(B268:F268)</f>
         <v>3.3483721060440641</v>
       </c>
       <c r="H268" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I268">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J268">
@@ -22683,15 +22777,15 @@
         <v>4.026128266033254</v>
       </c>
       <c r="G269" s="2">
+        <f t="shared" si="30"/>
+        <v>3.6775758555989988</v>
+      </c>
+      <c r="H269" s="2">
         <f t="shared" si="28"/>
-        <v>3.6775758555989988</v>
-      </c>
-      <c r="H269" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I269">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J269">
@@ -22715,15 +22809,15 @@
         <v>2.9757869249394671</v>
       </c>
       <c r="G270" s="2">
+        <f t="shared" si="30"/>
+        <v>2.660502331738019</v>
+      </c>
+      <c r="H270" s="2">
         <f t="shared" si="28"/>
-        <v>2.660502331738019</v>
-      </c>
-      <c r="H270" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I270">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J270">
@@ -22747,15 +22841,15 @@
         <v>1.5412719891745603</v>
       </c>
       <c r="G271" s="2">
+        <f t="shared" si="30"/>
+        <v>0.74657630818078791</v>
+      </c>
+      <c r="H271" s="2">
         <f t="shared" si="28"/>
-        <v>0.74657630818078791</v>
-      </c>
-      <c r="H271" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I271">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J271">
@@ -22779,15 +22873,15 @@
         <v>21.684676705048716</v>
       </c>
       <c r="G272" s="2">
+        <f t="shared" si="30"/>
+        <v>21.265426631237084</v>
+      </c>
+      <c r="H272" s="2">
         <f t="shared" si="28"/>
-        <v>21.265426631237084</v>
-      </c>
-      <c r="H272" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I272">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J272">
@@ -22811,15 +22905,15 @@
         <v>9.6023765996343684</v>
       </c>
       <c r="G273" s="2">
+        <f t="shared" si="30"/>
+        <v>8.9396709323583181</v>
+      </c>
+      <c r="H273" s="2">
         <f t="shared" si="28"/>
-        <v>8.9396709323583181</v>
-      </c>
-      <c r="H273" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I273">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J273">
@@ -22843,15 +22937,15 @@
         <v>23.571476622939795</v>
       </c>
       <c r="G274" s="2">
+        <f t="shared" si="30"/>
+        <v>23.105280861083084</v>
+      </c>
+      <c r="H274" s="2">
         <f t="shared" si="28"/>
-        <v>23.105280861083084</v>
-      </c>
-      <c r="H274" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I274">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J274">
@@ -22875,15 +22969,15 @@
         <v>1.6093514328808445</v>
       </c>
       <c r="G275" s="2">
+        <f t="shared" si="30"/>
+        <v>1.0105580693815988</v>
+      </c>
+      <c r="H275" s="2">
         <f t="shared" si="28"/>
-        <v>1.0105580693815988</v>
-      </c>
-      <c r="H275" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I275">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J275">
@@ -22907,15 +23001,15 @@
         <v>2.1639344262295079</v>
       </c>
       <c r="G276" s="2">
+        <f t="shared" si="30"/>
+        <v>1.509687034277198</v>
+      </c>
+      <c r="H276" s="2">
         <f t="shared" si="28"/>
-        <v>1.509687034277198</v>
-      </c>
-      <c r="H276" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I276">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J276">
@@ -22939,15 +23033,15 @@
         <v>2.7961783439490446</v>
       </c>
       <c r="G277" s="2">
+        <f t="shared" si="30"/>
+        <v>2.2600849256900215</v>
+      </c>
+      <c r="H277" s="2">
         <f t="shared" si="28"/>
-        <v>2.2600849256900215</v>
-      </c>
-      <c r="H277" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I277">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J277">
@@ -22971,15 +23065,15 @@
         <v>3.0177262482574725</v>
       </c>
       <c r="G278" s="2">
+        <f t="shared" si="30"/>
+        <v>2.0177262482574725</v>
+      </c>
+      <c r="H278" s="2">
         <f t="shared" si="28"/>
-        <v>2.0177262482574725</v>
-      </c>
-      <c r="H278" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I278">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J278">
@@ -23003,15 +23097,15 @@
         <v>15.961048301031118</v>
       </c>
       <c r="G279" s="2">
+        <f t="shared" si="30"/>
+        <v>15.766054719944167</v>
+      </c>
+      <c r="H279" s="2">
         <f t="shared" si="28"/>
-        <v>15.766054719944167</v>
-      </c>
-      <c r="H279" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I279">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J279">
@@ -23035,15 +23129,15 @@
         <v>1.7336026583304409</v>
       </c>
       <c r="G280" s="2">
+        <f t="shared" si="30"/>
+        <v>1.6911806106384142</v>
+      </c>
+      <c r="H280" s="2">
         <f t="shared" si="28"/>
-        <v>1.6911806106384142</v>
-      </c>
-      <c r="H280" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I280">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J280">
@@ -23067,15 +23161,15 @@
         <v>5.3332731753212368</v>
       </c>
       <c r="G281" s="2">
+        <f t="shared" si="30"/>
+        <v>4.7414244974926048</v>
+      </c>
+      <c r="H281" s="2">
         <f t="shared" si="28"/>
-        <v>4.7414244974926048</v>
-      </c>
-      <c r="H281" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I281">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J281">
@@ -23099,15 +23193,15 @@
         <v>1.7798742138364778</v>
       </c>
       <c r="G282" s="2">
+        <f t="shared" si="30"/>
+        <v>1.1525157232704402</v>
+      </c>
+      <c r="H282" s="2">
         <f t="shared" si="28"/>
-        <v>1.1525157232704402</v>
-      </c>
-      <c r="H282" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I282">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J282">
@@ -23131,15 +23225,15 @@
         <v>18.110336817653891</v>
       </c>
       <c r="G283" s="2">
+        <f t="shared" si="30"/>
+        <v>17.455865272938443</v>
+      </c>
+      <c r="H283" s="2">
         <f t="shared" si="28"/>
-        <v>17.455865272938443</v>
-      </c>
-      <c r="H283" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I283">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J283">
@@ -23163,15 +23257,15 @@
         <v>2.9241435562805873</v>
       </c>
       <c r="G284" s="2">
+        <f t="shared" si="30"/>
+        <v>2.4804241435562808</v>
+      </c>
+      <c r="H284" s="2">
         <f t="shared" si="28"/>
-        <v>2.4804241435562808</v>
-      </c>
-      <c r="H284" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I284">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J284">
@@ -23195,15 +23289,15 @@
         <v>1.293478260869565</v>
       </c>
       <c r="G285" s="2">
+        <f t="shared" si="30"/>
+        <v>0.61231884057970998</v>
+      </c>
+      <c r="H285" s="2">
         <f t="shared" si="28"/>
-        <v>0.61231884057970998</v>
-      </c>
-      <c r="H285" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I285">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J285">
@@ -23227,15 +23321,15 @@
         <v>1.0637931034482759</v>
       </c>
       <c r="G286" s="2">
+        <f t="shared" si="30"/>
+        <v>0.41896551724137931</v>
+      </c>
+      <c r="H286" s="2">
         <f t="shared" si="28"/>
-        <v>0.41896551724137931</v>
-      </c>
-      <c r="H286" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I286">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J286">
@@ -23259,15 +23353,15 @@
         <v>1.1560509554140126</v>
       </c>
       <c r="G287" s="2">
+        <f t="shared" si="30"/>
+        <v>0.51433121019108263</v>
+      </c>
+      <c r="H287" s="2">
         <f t="shared" si="28"/>
-        <v>0.51433121019108263</v>
-      </c>
-      <c r="H287" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I287">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J287">
@@ -23291,15 +23385,15 @@
         <v>4.5968523002421309</v>
       </c>
       <c r="G288" s="2">
+        <f t="shared" si="30"/>
+        <v>3.898305084745763</v>
+      </c>
+      <c r="H288" s="2">
         <f t="shared" si="28"/>
-        <v>3.898305084745763</v>
-      </c>
-      <c r="H288" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I288">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J288">
@@ -23323,15 +23417,15 @@
         <v>115.81008712333148</v>
       </c>
       <c r="G289" s="2">
+        <f t="shared" si="30"/>
+        <v>115.56965870034371</v>
+      </c>
+      <c r="H289" s="2">
         <f t="shared" si="28"/>
-        <v>115.56965870034371</v>
-      </c>
-      <c r="H289" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I289">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J289">
@@ -23355,15 +23449,15 @@
         <v>28.528021015761823</v>
       </c>
       <c r="G290" s="2">
+        <f t="shared" si="30"/>
+        <v>27.990367775831874</v>
+      </c>
+      <c r="H290" s="2">
         <f t="shared" si="28"/>
-        <v>27.990367775831874</v>
-      </c>
-      <c r="H290" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I290">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J290">
@@ -23387,15 +23481,15 @@
         <v>56.132591093117412</v>
       </c>
       <c r="G291" s="2">
+        <f t="shared" si="30"/>
+        <v>55.371457489878544</v>
+      </c>
+      <c r="H291" s="2">
         <f t="shared" si="28"/>
-        <v>55.371457489878544</v>
-      </c>
-      <c r="H291" s="2">
-        <f t="shared" si="26"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I291">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J291">

--- a/stats1000_Time.xlsx
+++ b/stats1000_Time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-3920" yWindow="-22640" windowWidth="34660" windowHeight="19740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="c-Chart" sheetId="3" r:id="rId1"/>
@@ -4922,11 +4922,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2058701624"/>
-        <c:axId val="-2047107496"/>
+        <c:axId val="2039721224"/>
+        <c:axId val="2039726232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2058701624"/>
+        <c:axId val="2039721224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4961,7 +4961,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2047107496"/>
+        <c:crossAx val="2039726232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4971,7 +4971,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2047107496"/>
+        <c:axId val="2039726232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5016,7 +5016,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2058701624"/>
+        <c:crossAx val="2039721224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5295,8 +5295,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1861968152"/>
-        <c:axId val="1861697448"/>
+        <c:axId val="-2119081752"/>
+        <c:axId val="-2119087512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5886,11 +5886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1861968152"/>
-        <c:axId val="1861697448"/>
+        <c:axId val="-2119081752"/>
+        <c:axId val="-2119087512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1861968152"/>
+        <c:axId val="-2119081752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5916,8 +5916,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.410024162524772"/>
-              <c:y val="0.910639523718072"/>
+              <c:x val="0.395098836526031"/>
+              <c:y val="0.924153011278995"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5944,7 +5944,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1861697448"/>
+        <c:crossAx val="-2119087512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5954,7 +5954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1861697448"/>
+        <c:axId val="-2119087512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6024,7 +6024,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1861968152"/>
+        <c:crossAx val="-2119081752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6262,8 +6262,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="1861829992"/>
-        <c:axId val="-2069314008"/>
+        <c:axId val="-2115525736"/>
+        <c:axId val="-2115519672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6736,11 +6736,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1861829992"/>
-        <c:axId val="-2069314008"/>
+        <c:axId val="-2115525736"/>
+        <c:axId val="-2115519672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1861829992"/>
+        <c:axId val="-2115525736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6766,8 +6766,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.470463692038495"/>
-              <c:y val="0.914613495893658"/>
+              <c:x val="0.42718016218122"/>
+              <c:y val="0.925424345605448"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -6800,7 +6800,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2069314008"/>
+        <c:crossAx val="-2115519672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6810,7 +6810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2069314008"/>
+        <c:axId val="-2115519672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6874,7 +6874,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1861829992"/>
+        <c:crossAx val="-2115525736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7106,8 +7106,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="1861933672"/>
-        <c:axId val="1861296808"/>
+        <c:axId val="-2115456936"/>
+        <c:axId val="-2115450872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7559,11 +7559,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1861933672"/>
-        <c:axId val="1861296808"/>
+        <c:axId val="-2115456936"/>
+        <c:axId val="-2115450872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1861933672"/>
+        <c:axId val="-2115456936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7623,7 +7623,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1861296808"/>
+        <c:crossAx val="-2115450872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7633,7 +7633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1861296808"/>
+        <c:axId val="-2115450872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7703,7 +7703,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1861933672"/>
+        <c:crossAx val="-2115456936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7935,8 +7935,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-1994174984"/>
-        <c:axId val="-1994675736"/>
+        <c:axId val="-2117202024"/>
+        <c:axId val="-2117195992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8380,11 +8380,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1994174984"/>
-        <c:axId val="-1994675736"/>
+        <c:axId val="-2117202024"/>
+        <c:axId val="-2117195992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1994174984"/>
+        <c:axId val="-2117202024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8410,8 +8410,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.426625521074572"/>
-              <c:y val="0.916733091055926"/>
+              <c:x val="0.423640498295922"/>
+              <c:y val="0.924841242817621"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8444,7 +8444,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994675736"/>
+        <c:crossAx val="-2117195992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8454,7 +8454,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1994675736"/>
+        <c:axId val="-2117195992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8524,7 +8524,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994174984"/>
+        <c:crossAx val="-2117202024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8756,8 +8756,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-1994464168"/>
-        <c:axId val="-2048086456"/>
+        <c:axId val="-2117135416"/>
+        <c:axId val="-2117129384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9074,8 +9074,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.244766505636071"/>
-                  <c:y val="-0.00536193029490617"/>
+                  <c:x val="0.227888588553297"/>
+                  <c:y val="-0.0214909829819659"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -9209,11 +9209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1994464168"/>
-        <c:axId val="-2048086456"/>
+        <c:axId val="-2117135416"/>
+        <c:axId val="-2117129384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1994464168"/>
+        <c:axId val="-2117135416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9273,7 +9273,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2048086456"/>
+        <c:crossAx val="-2117129384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9283,7 +9283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2048086456"/>
+        <c:axId val="-2117129384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9353,7 +9353,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1994464168"/>
+        <c:crossAx val="-2117135416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9586,8 +9586,8 @@
         </c:dLbls>
         <c:gapWidth val="500"/>
         <c:overlap val="-45"/>
-        <c:axId val="-1992018600"/>
-        <c:axId val="1861559528"/>
+        <c:axId val="-2117650328"/>
+        <c:axId val="-2117656408"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10031,11 +10031,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1992018600"/>
-        <c:axId val="1861559528"/>
+        <c:axId val="-2117650328"/>
+        <c:axId val="-2117656408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1992018600"/>
+        <c:axId val="-2117650328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10095,7 +10095,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1861559528"/>
+        <c:crossAx val="-2117656408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10105,7 +10105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1861559528"/>
+        <c:axId val="-2117656408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10175,7 +10175,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1992018600"/>
+        <c:crossAx val="-2117650328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10465,8 +10465,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2069047848"/>
-        <c:axId val="1861547976"/>
+        <c:axId val="-2117722856"/>
+        <c:axId val="-2117728360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11129,11 +11129,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2069047848"/>
-        <c:axId val="1861547976"/>
+        <c:axId val="-2117722856"/>
+        <c:axId val="-2117728360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2069047848"/>
+        <c:axId val="-2117722856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11178,7 +11178,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1861547976"/>
+        <c:crossAx val="-2117728360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11186,7 +11186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1861547976"/>
+        <c:axId val="-2117728360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11233,7 +11233,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2069047848"/>
+        <c:crossAx val="-2117722856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14615,8 +14615,8 @@
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:AI292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="M79" sqref="M79:T79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ21" sqref="AJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16754,11 +16754,11 @@
         <v>61.840124003542954</v>
       </c>
       <c r="R65" s="46">
-        <f t="shared" ref="R65" si="10">MAX(M65:Q65)-MIN(M65:Q65)</f>
+        <f>MAX(M65:Q65)-MIN(M65:Q65)</f>
         <v>60.840124003542954</v>
       </c>
       <c r="S65" s="42">
-        <f t="shared" ref="S65" si="11">$G$26</f>
+        <f>$G$26</f>
         <v>6.191357512126336</v>
       </c>
       <c r="T65" s="42">
@@ -16862,15 +16862,15 @@
         <v>148.20187839604648</v>
       </c>
       <c r="R67" s="46">
-        <f t="shared" ref="R67:R70" si="12">MAX(M67:Q67)-MIN(M67:Q67)</f>
+        <f>MAX(M67:Q67)-MIN(M67:Q67)</f>
         <v>147.20187839604648</v>
       </c>
       <c r="S67" s="42">
-        <f t="shared" ref="S67:S70" si="13">$G$81</f>
+        <f>$G$81</f>
         <v>20.63724744277615</v>
       </c>
       <c r="T67" s="42">
-        <f t="shared" ref="T67:T70" si="14">S67*2.114</f>
+        <f>S67*2.114</f>
         <v>43.627141094028779</v>
       </c>
       <c r="U67" t="s">
@@ -16931,15 +16931,15 @@
         <v>258.94914176732357</v>
       </c>
       <c r="R68" s="46">
-        <f t="shared" si="12"/>
+        <f>MAX(M68:Q68)-MIN(M68:Q68)</f>
         <v>257.94914176732357</v>
       </c>
       <c r="S68" s="42">
-        <f t="shared" si="13"/>
+        <f>$G$81</f>
         <v>20.63724744277615</v>
       </c>
       <c r="T68" s="42">
-        <f t="shared" si="14"/>
+        <f>S68*2.114</f>
         <v>43.627141094028779</v>
       </c>
       <c r="U68" t="s">
@@ -17000,15 +17000,15 @@
         <v>261.36466165413532</v>
       </c>
       <c r="R69" s="46">
-        <f t="shared" si="12"/>
+        <f>MAX(M69:Q69)-MIN(M69:Q69)</f>
         <v>260.36466165413532</v>
       </c>
       <c r="S69" s="42">
-        <f t="shared" si="13"/>
+        <f>$G$81</f>
         <v>20.63724744277615</v>
       </c>
       <c r="T69" s="42">
-        <f t="shared" si="14"/>
+        <f>S69*2.114</f>
         <v>43.627141094028779</v>
       </c>
       <c r="U69" t="s">
@@ -17069,15 +17069,15 @@
         <v>50.305687203791472</v>
       </c>
       <c r="R70" s="46">
-        <f t="shared" si="12"/>
+        <f>MAX(M70:Q70)-MIN(M70:Q70)</f>
         <v>49.305687203791472</v>
       </c>
       <c r="S70" s="42">
-        <f t="shared" si="13"/>
+        <f>$G$81</f>
         <v>20.63724744277615</v>
       </c>
       <c r="T70" s="42">
-        <f t="shared" si="14"/>
+        <f>S70*2.114</f>
         <v>43.627141094028779</v>
       </c>
       <c r="U70" t="s">
@@ -17246,15 +17246,15 @@
         <v>50.561327561327566</v>
       </c>
       <c r="R73" s="46">
-        <f t="shared" ref="R73" si="15">MAX(M73:Q73)-MIN(M73:Q73)</f>
+        <f>MAX(M73:Q73)-MIN(M73:Q73)</f>
         <v>49.561327561327566</v>
       </c>
       <c r="S73" s="46">
-        <f t="shared" ref="S73" si="16">$G$93</f>
+        <f>$G$93</f>
         <v>20.330755674030055</v>
       </c>
       <c r="T73" s="42">
-        <f t="shared" ref="T73" si="17">S73*2.114</f>
+        <f>S73*2.114</f>
         <v>42.979217494899537</v>
       </c>
       <c r="U73" t="s">
@@ -17354,15 +17354,15 @@
         <v>81.854224185532857</v>
       </c>
       <c r="R75" s="46">
-        <f t="shared" ref="R75" si="18">MAX(M75:Q75)-MIN(M75:Q75)</f>
+        <f>MAX(M75:Q75)-MIN(M75:Q75)</f>
         <v>80.854224185532857</v>
       </c>
       <c r="S75" s="46">
-        <f t="shared" ref="S75" si="19">$G$102</f>
+        <f>$G$102</f>
         <v>33.424902669347318</v>
       </c>
       <c r="T75" s="42">
-        <f t="shared" ref="T75" si="20">S75*2.114</f>
+        <f>S75*2.114</f>
         <v>70.660244243000221</v>
       </c>
       <c r="U75" t="s">
@@ -17462,15 +17462,15 @@
         <v>27.671694764862465</v>
       </c>
       <c r="R77" s="46">
-        <f t="shared" ref="R77" si="21">MAX(M77:Q77)-MIN(M77:Q77)</f>
+        <f>MAX(M77:Q77)-MIN(M77:Q77)</f>
         <v>26.671694764862465</v>
       </c>
       <c r="S77" s="46">
-        <f t="shared" ref="S77" si="22">$G$111</f>
+        <f>$G$111</f>
         <v>10.294099180968981</v>
       </c>
       <c r="T77" s="42">
-        <f t="shared" ref="T77" si="23">S77*2.114</f>
+        <f>S77*2.114</f>
         <v>21.761725668568424</v>
       </c>
       <c r="U77" t="s">
@@ -17570,15 +17570,15 @@
         <v>27.294516327788045</v>
       </c>
       <c r="R79" s="46">
-        <f t="shared" ref="R79" si="24">MAX(M79:Q79)-MIN(M79:Q79)</f>
+        <f>MAX(M79:Q79)-MIN(M79:Q79)</f>
         <v>26.294516327788045</v>
       </c>
       <c r="S79" s="46">
-        <f t="shared" ref="S79" si="25">$G$123</f>
+        <f>$G$123</f>
         <v>6.8450526413669195</v>
       </c>
       <c r="T79" s="42">
-        <f t="shared" ref="T79" si="26">S79*2.114</f>
+        <f>S79*2.114</f>
         <v>14.470441283849667</v>
       </c>
       <c r="U79" t="s">
@@ -17748,7 +17748,7 @@
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="2">
-        <f>MIN(B87:F87)</f>
+        <f t="shared" ref="A87:A92" si="10">MIN(B87:F87)</f>
         <v>1</v>
       </c>
       <c r="B87" s="42">
@@ -17767,15 +17767,15 @@
         <v>51.722535211267605</v>
       </c>
       <c r="G87" s="46">
-        <f>MAX(B87:F87)-MIN(B87:F87)</f>
+        <f t="shared" ref="G87:G92" si="11">MAX(B87:F87)-MIN(B87:F87)</f>
         <v>50.722535211267605</v>
       </c>
       <c r="H87" s="46">
-        <f>$G$93</f>
+        <f t="shared" ref="H87:H92" si="12">$G$93</f>
         <v>20.330755674030055</v>
       </c>
       <c r="I87" s="42">
-        <f>H87*2.114</f>
+        <f t="shared" ref="I87:I92" si="13">H87*2.114</f>
         <v>42.979217494899537</v>
       </c>
       <c r="J87">
@@ -17784,7 +17784,7 @@
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="2">
-        <f t="shared" ref="A88:A91" si="27">MIN(B88:F88)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="B88" s="40">
@@ -17803,15 +17803,15 @@
         <v>14.489655172413794</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" ref="G88:G92" si="28">MAX(B88:F88)-MIN(B88:F88)</f>
+        <f t="shared" si="11"/>
         <v>13.489655172413794</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" ref="H88:H92" si="29">$G$93</f>
+        <f t="shared" si="12"/>
         <v>20.330755674030055</v>
       </c>
       <c r="I88">
-        <f t="shared" ref="I88:I92" si="30">H88*2.114</f>
+        <f t="shared" si="13"/>
         <v>42.979217494899537</v>
       </c>
       <c r="J88">
@@ -17820,7 +17820,7 @@
     </row>
     <row r="89" spans="1:26">
       <c r="A89" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="B89" s="42">
@@ -17839,15 +17839,15 @@
         <v>50.561327561327566</v>
       </c>
       <c r="G89" s="46">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>49.561327561327566</v>
       </c>
       <c r="H89" s="46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>20.330755674030055</v>
       </c>
       <c r="I89" s="42">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>42.979217494899537</v>
       </c>
       <c r="J89">
@@ -17856,7 +17856,7 @@
     </row>
     <row r="90" spans="1:26">
       <c r="A90" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="B90" s="40">
@@ -17875,15 +17875,15 @@
         <v>2.6876574307304781</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>1.6876574307304781</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>20.330755674030055</v>
       </c>
       <c r="I90">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>42.979217494899537</v>
       </c>
       <c r="J90">
@@ -17892,7 +17892,7 @@
     </row>
     <row r="91" spans="1:26">
       <c r="A91" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="B91" s="40">
@@ -17911,15 +17911,15 @@
         <v>3.3075170842824599</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>2.3075170842824599</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>20.330755674030055</v>
       </c>
       <c r="I91">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>42.979217494899537</v>
       </c>
       <c r="J91">
@@ -17928,7 +17928,7 @@
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="2">
-        <f>MIN(B92:F92)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="B92" s="40">
@@ -17947,15 +17947,15 @@
         <v>5.215841584158416</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="11"/>
         <v>4.215841584158416</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="12"/>
         <v>20.330755674030055</v>
       </c>
       <c r="I92">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>42.979217494899537</v>
       </c>
       <c r="J92">
@@ -18065,7 +18065,7 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="2">
-        <f t="shared" ref="A99:A101" si="31">MIN(B99:F99)</f>
+        <f>MIN(B99:F99)</f>
         <v>1</v>
       </c>
       <c r="B99" s="42">
@@ -18084,15 +18084,15 @@
         <v>81.854224185532857</v>
       </c>
       <c r="G99" s="46">
-        <f t="shared" ref="G99:G100" si="32">MAX(B99:F99)-MIN(B99:F99)</f>
+        <f>MAX(B99:F99)-MIN(B99:F99)</f>
         <v>80.854224185532857</v>
       </c>
       <c r="H99" s="46">
-        <f t="shared" ref="H99:H101" si="33">$G$102</f>
+        <f>$G$102</f>
         <v>33.424902669347318</v>
       </c>
       <c r="I99" s="42">
-        <f t="shared" ref="I99:I101" si="34">H99*2.114</f>
+        <f>H99*2.114</f>
         <v>70.660244243000221</v>
       </c>
       <c r="J99">
@@ -18101,7 +18101,7 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="2">
-        <f t="shared" si="31"/>
+        <f>MIN(B100:F100)</f>
         <v>1</v>
       </c>
       <c r="B100" s="40">
@@ -18120,15 +18120,15 @@
         <v>43.879149274498111</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="32"/>
+        <f>MAX(B100:F100)-MIN(B100:F100)</f>
         <v>42.879149274498111</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="33"/>
+        <f>$G$102</f>
         <v>33.424902669347318</v>
       </c>
       <c r="I100">
-        <f t="shared" si="34"/>
+        <f>H100*2.114</f>
         <v>70.660244243000221</v>
       </c>
       <c r="J100">
@@ -18137,7 +18137,7 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="2">
-        <f t="shared" si="31"/>
+        <f>MIN(B101:F101)</f>
         <v>1</v>
       </c>
       <c r="B101" s="40">
@@ -18160,11 +18160,11 @@
         <v>8.0112107623318387</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="33"/>
+        <f>$G$102</f>
         <v>33.424902669347318</v>
       </c>
       <c r="I101">
-        <f t="shared" si="34"/>
+        <f>H101*2.114</f>
         <v>70.660244243000221</v>
       </c>
       <c r="J101">
@@ -18275,7 +18275,7 @@
     </row>
     <row r="107" spans="1:26">
       <c r="A107">
-        <f t="shared" ref="A107:A110" si="35">MIN(B107:F107)</f>
+        <f>MIN(B107:F107)</f>
         <v>1</v>
       </c>
       <c r="B107" s="42">
@@ -18294,15 +18294,15 @@
         <v>27.671694764862465</v>
       </c>
       <c r="G107" s="46">
-        <f t="shared" ref="G107:G110" si="36">MAX(B107:F107)-MIN(B107:F107)</f>
+        <f>MAX(B107:F107)-MIN(B107:F107)</f>
         <v>26.671694764862465</v>
       </c>
       <c r="H107" s="46">
-        <f t="shared" ref="H107:H110" si="37">$G$111</f>
+        <f>$G$111</f>
         <v>10.294099180968981</v>
       </c>
       <c r="I107" s="42">
-        <f t="shared" ref="I107:I110" si="38">H107*2.114</f>
+        <f>H107*2.114</f>
         <v>21.761725668568424</v>
       </c>
       <c r="J107">
@@ -18311,7 +18311,7 @@
     </row>
     <row r="108" spans="1:26">
       <c r="A108">
-        <f t="shared" si="35"/>
+        <f>MIN(B108:F108)</f>
         <v>1</v>
       </c>
       <c r="B108" s="40">
@@ -18330,15 +18330,15 @@
         <v>6.5900735294117645</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="36"/>
+        <f>MAX(B108:F108)-MIN(B108:F108)</f>
         <v>5.5900735294117645</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="37"/>
+        <f>$G$111</f>
         <v>10.294099180968981</v>
       </c>
       <c r="I108">
-        <f t="shared" si="38"/>
+        <f>H108*2.114</f>
         <v>21.761725668568424</v>
       </c>
       <c r="J108">
@@ -18347,7 +18347,7 @@
     </row>
     <row r="109" spans="1:26">
       <c r="A109">
-        <f t="shared" si="35"/>
+        <f>MIN(B109:F109)</f>
         <v>1</v>
       </c>
       <c r="B109" s="40">
@@ -18366,15 +18366,15 @@
         <v>16.897216274089935</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="36"/>
+        <f>MAX(B109:F109)-MIN(B109:F109)</f>
         <v>15.897216274089935</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="37"/>
+        <f>$G$111</f>
         <v>10.294099180968981</v>
       </c>
       <c r="I109">
-        <f t="shared" si="38"/>
+        <f>H109*2.114</f>
         <v>21.761725668568424</v>
       </c>
       <c r="J109">
@@ -18383,7 +18383,7 @@
     </row>
     <row r="110" spans="1:26">
       <c r="A110">
-        <f t="shared" si="35"/>
+        <f>MIN(B110:F110)</f>
         <v>1</v>
       </c>
       <c r="B110" s="40">
@@ -18402,15 +18402,15 @@
         <v>2.4744186046511629</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="36"/>
+        <f>MAX(B110:F110)-MIN(B110:F110)</f>
         <v>1.4744186046511629</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="37"/>
+        <f>$G$111</f>
         <v>10.294099180968981</v>
       </c>
       <c r="I110">
-        <f t="shared" si="38"/>
+        <f>H110*2.114</f>
         <v>21.761725668568424</v>
       </c>
       <c r="J110">
@@ -18540,7 +18540,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119">
-        <f t="shared" ref="A119:A122" si="39">MIN(B119:F119)</f>
+        <f>MIN(B119:F119)</f>
         <v>1</v>
       </c>
       <c r="B119" s="40">
@@ -18559,15 +18559,15 @@
         <v>1.6497326203208555</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" ref="G119:G122" si="40">MAX(B119:F119)-MIN(B119:F119)</f>
+        <f>MAX(B119:F119)-MIN(B119:F119)</f>
         <v>0.64973262032085555</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" ref="H119:H122" si="41">$G$123</f>
+        <f>$G$123</f>
         <v>6.8450526413669195</v>
       </c>
       <c r="I119">
-        <f t="shared" ref="I119:I122" si="42">H119*2.114</f>
+        <f>H119*2.114</f>
         <v>14.470441283849667</v>
       </c>
       <c r="J119">
@@ -18576,7 +18576,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120">
-        <f t="shared" si="39"/>
+        <f>MIN(B120:F120)</f>
         <v>1</v>
       </c>
       <c r="B120" s="40">
@@ -18595,15 +18595,15 @@
         <v>1.8014888337468982</v>
       </c>
       <c r="G120" s="2">
-        <f t="shared" si="40"/>
+        <f>MAX(B120:F120)-MIN(B120:F120)</f>
         <v>0.80148883374689817</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="41"/>
+        <f>$G$123</f>
         <v>6.8450526413669195</v>
       </c>
       <c r="I120">
-        <f t="shared" si="42"/>
+        <f>H120*2.114</f>
         <v>14.470441283849667</v>
       </c>
       <c r="J120">
@@ -18612,7 +18612,7 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121">
-        <f t="shared" si="39"/>
+        <f>MIN(B121:F121)</f>
         <v>1</v>
       </c>
       <c r="B121" s="40">
@@ -18631,15 +18631,15 @@
         <v>6.5805892547660321</v>
       </c>
       <c r="G121" s="2">
-        <f t="shared" si="40"/>
+        <f>MAX(B121:F121)-MIN(B121:F121)</f>
         <v>5.5805892547660321</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="41"/>
+        <f>$G$123</f>
         <v>6.8450526413669195</v>
       </c>
       <c r="I121">
-        <f t="shared" si="42"/>
+        <f>H121*2.114</f>
         <v>14.470441283849667</v>
       </c>
       <c r="J121">
@@ -18648,7 +18648,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122">
-        <f t="shared" si="39"/>
+        <f>MIN(B122:F122)</f>
         <v>1</v>
       </c>
       <c r="B122" s="42">
@@ -18667,15 +18667,15 @@
         <v>27.294516327788045</v>
       </c>
       <c r="G122" s="46">
-        <f t="shared" si="40"/>
+        <f>MAX(B122:F122)-MIN(B122:F122)</f>
         <v>26.294516327788045</v>
       </c>
       <c r="H122" s="46">
-        <f t="shared" si="41"/>
+        <f>$G$123</f>
         <v>6.8450526413669195</v>
       </c>
       <c r="I122" s="42">
-        <f t="shared" si="42"/>
+        <f>H122*2.114</f>
         <v>14.470441283849667</v>
       </c>
       <c r="J122">
@@ -18776,7 +18776,7 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128">
-        <f t="shared" ref="A128:A131" si="43">MIN(B128:F128)</f>
+        <f>MIN(B128:F128)</f>
         <v>1</v>
       </c>
       <c r="B128" s="40">
@@ -18795,15 +18795,15 @@
         <v>53.060260586319217</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" ref="G128:G131" si="44">MAX(B128:F128)-MIN(B128:F128)</f>
+        <f>MAX(B128:F128)-MIN(B128:F128)</f>
         <v>52.060260586319217</v>
       </c>
       <c r="H128" s="2">
-        <f t="shared" ref="H128:H131" si="45">$G$132</f>
+        <f>$G$132</f>
         <v>129.25344355399793</v>
       </c>
       <c r="I128">
-        <f t="shared" ref="I128:I131" si="46">H128*2.114</f>
+        <f>H128*2.114</f>
         <v>273.2417796731516</v>
       </c>
       <c r="J128">
@@ -18812,7 +18812,7 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
-        <f t="shared" si="43"/>
+        <f>MIN(B129:F129)</f>
         <v>1</v>
       </c>
       <c r="B129" s="40">
@@ -18831,15 +18831,15 @@
         <v>73.748670212765958</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="44"/>
+        <f>MAX(B129:F129)-MIN(B129:F129)</f>
         <v>72.748670212765958</v>
       </c>
       <c r="H129" s="2">
-        <f t="shared" si="45"/>
+        <f>$G$132</f>
         <v>129.25344355399793</v>
       </c>
       <c r="I129">
-        <f t="shared" si="46"/>
+        <f>H129*2.114</f>
         <v>273.2417796731516</v>
       </c>
       <c r="J129">
@@ -18848,7 +18848,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
-        <f t="shared" si="43"/>
+        <f>MIN(B130:F130)</f>
         <v>1</v>
       </c>
       <c r="B130" s="40">
@@ -18867,15 +18867,15 @@
         <v>9.8630319148936163</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" si="44"/>
+        <f>MAX(B130:F130)-MIN(B130:F130)</f>
         <v>8.8630319148936163</v>
       </c>
       <c r="H130" s="2">
-        <f t="shared" si="45"/>
+        <f>$G$132</f>
         <v>129.25344355399793</v>
       </c>
       <c r="I130">
-        <f t="shared" si="46"/>
+        <f>H130*2.114</f>
         <v>273.2417796731516</v>
       </c>
       <c r="J130">
@@ -18884,7 +18884,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
-        <f t="shared" si="43"/>
+        <f>MIN(B131:F131)</f>
         <v>1</v>
       </c>
       <c r="B131" s="40">
@@ -18903,15 +18903,15 @@
         <v>27.607067137809185</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" si="44"/>
+        <f>MAX(B131:F131)-MIN(B131:F131)</f>
         <v>31.913074204946994</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" si="45"/>
+        <f>$G$132</f>
         <v>129.25344355399793</v>
       </c>
       <c r="I131">
-        <f t="shared" si="46"/>
+        <f>H131*2.114</f>
         <v>273.2417796731516</v>
       </c>
       <c r="J131">
@@ -19426,11 +19426,11 @@
         <v>1.1014285714285714</v>
       </c>
       <c r="H203" s="2">
-        <f t="shared" ref="H203:H266" si="47">$G$292</f>
+        <f t="shared" ref="H203:H266" si="14">$G$292</f>
         <v>13.247983172382199</v>
       </c>
       <c r="I203">
-        <f t="shared" ref="I203:I266" si="48">H203*2.114</f>
+        <f t="shared" ref="I203:I266" si="15">H203*2.114</f>
         <v>28.006236426415967</v>
       </c>
       <c r="J203">
@@ -19454,15 +19454,15 @@
         <v>1.5563463819691579</v>
       </c>
       <c r="G204" s="2">
-        <f t="shared" ref="G204:G267" si="49">MAX(B204:F204)-MIN(B204:F204)</f>
+        <f t="shared" ref="G204:G267" si="16">MAX(B204:F204)-MIN(B204:F204)</f>
         <v>1.0201660735468565</v>
       </c>
       <c r="H204" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I204">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J204">
@@ -19486,15 +19486,15 @@
         <v>5.5142617449664435</v>
       </c>
       <c r="G205" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>4.9437919463087256</v>
       </c>
       <c r="H205" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I205">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J205">
@@ -19518,15 +19518,15 @@
         <v>3.5515202702702706</v>
       </c>
       <c r="G206" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>3.0287162162162167</v>
       </c>
       <c r="H206" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I206">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J206">
@@ -19550,15 +19550,15 @@
         <v>4.4678841309823678</v>
       </c>
       <c r="G207" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>3.8847607052896729</v>
       </c>
       <c r="H207" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I207">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J207">
@@ -19582,15 +19582,15 @@
         <v>1.9349503858875412</v>
       </c>
       <c r="G208" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>1.412348401323043</v>
       </c>
       <c r="H208" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I208">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J208">
@@ -19614,15 +19614,15 @@
         <v>1.2217245240761478</v>
       </c>
       <c r="G209" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.69652855543113112</v>
       </c>
       <c r="H209" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I209">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J209">
@@ -19646,15 +19646,15 @@
         <v>1.0181200453001134</v>
       </c>
       <c r="G210" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.56511891279728199</v>
       </c>
       <c r="H210" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I210">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J210">
@@ -19678,15 +19678,15 @@
         <v>0.85277777777777775</v>
       </c>
       <c r="G211" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.38888888888888884</v>
       </c>
       <c r="H211" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I211">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J211">
@@ -19710,15 +19710,15 @@
         <v>1.2341040462427746</v>
       </c>
       <c r="G212" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.63872832369942201</v>
       </c>
       <c r="H212" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I212">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J212">
@@ -19742,15 +19742,15 @@
         <v>1.5431472081218274</v>
       </c>
       <c r="G213" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.8883248730964467</v>
       </c>
       <c r="H213" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I213">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J213">
@@ -19774,15 +19774,15 @@
         <v>1.5813366960907944</v>
       </c>
       <c r="G214" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>1.0491803278688525</v>
       </c>
       <c r="H214" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I214">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J214">
@@ -19806,15 +19806,15 @@
         <v>4.9194831013916502</v>
       </c>
       <c r="G215" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>4.4403578528827037</v>
       </c>
       <c r="H215" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I215">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J215">
@@ -19838,15 +19838,15 @@
         <v>32.43177331320404</v>
       </c>
       <c r="G216" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>31.907327836488211</v>
       </c>
       <c r="H216" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I216">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J216">
@@ -19870,15 +19870,15 @@
         <v>0.9115168539325843</v>
       </c>
       <c r="G217" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.45224719101123589</v>
       </c>
       <c r="H217" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I217">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J217">
@@ -19902,15 +19902,15 @@
         <v>1.4994011976047905</v>
       </c>
       <c r="G218" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.94251497005988027</v>
       </c>
       <c r="H218" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I218">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J218">
@@ -19934,15 +19934,15 @@
         <v>1.7980364656381489</v>
       </c>
       <c r="G219" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>1.2131837307152877</v>
       </c>
       <c r="H219" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I219">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J219">
@@ -19966,15 +19966,15 @@
         <v>2.5005500550055006</v>
       </c>
       <c r="G220" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>2.0011001100110013</v>
       </c>
       <c r="H220" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I220">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J220">
@@ -19998,15 +19998,15 @@
         <v>1.7510373443983402</v>
       </c>
       <c r="G221" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>1.0145180389838711</v>
       </c>
       <c r="H221" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I221">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J221">
@@ -20030,15 +20030,15 @@
         <v>0.7478108581436077</v>
       </c>
       <c r="G222" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.70599403142549566</v>
       </c>
       <c r="H222" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I222">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J222">
@@ -20062,15 +20062,15 @@
         <v>1.6382681564245811</v>
       </c>
       <c r="G223" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.83265971723728982</v>
       </c>
       <c r="H223" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I223">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J223">
@@ -20094,15 +20094,15 @@
         <v>148.20187839604648</v>
       </c>
       <c r="G224" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>148.19804680107367</v>
       </c>
       <c r="H224" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I224">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J224">
@@ -20126,15 +20126,15 @@
         <v>12.20675453047776</v>
       </c>
       <c r="G225" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>11.696507522072254</v>
       </c>
       <c r="H225" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I225">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J225">
@@ -20158,15 +20158,15 @@
         <v>21.030041152263372</v>
       </c>
       <c r="G226" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>20.829868414367727</v>
       </c>
       <c r="H226" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I226">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J226">
@@ -20190,15 +20190,15 @@
         <v>2.1827794561933533</v>
       </c>
       <c r="G227" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>1.1833362236562279</v>
       </c>
       <c r="H227" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I227">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J227">
@@ -20222,15 +20222,15 @@
         <v>1.3525091799265607</v>
       </c>
       <c r="G228" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.70680565522428096</v>
       </c>
       <c r="H228" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I228">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J228">
@@ -20254,15 +20254,15 @@
         <v>2.4748272458045415</v>
       </c>
       <c r="G229" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>2.0099915316093164</v>
       </c>
       <c r="H229" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I229">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J229">
@@ -20286,15 +20286,15 @@
         <v>4.3471760797342194</v>
       </c>
       <c r="G230" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>3.7953057913268067</v>
       </c>
       <c r="H230" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I230">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J230">
@@ -20318,15 +20318,15 @@
         <v>226.92311977715877</v>
       </c>
       <c r="G231" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>226.43491748201831</v>
       </c>
       <c r="H231" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I231">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J231">
@@ -20350,15 +20350,15 @@
         <v>202.88813229571983</v>
       </c>
       <c r="G232" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>202.51057169677057</v>
       </c>
       <c r="H232" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I232">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J232">
@@ -20382,15 +20382,15 @@
         <v>50.305687203791472</v>
       </c>
       <c r="G233" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>50.126283216954718</v>
       </c>
       <c r="H233" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I233">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J233">
@@ -20414,15 +20414,15 @@
         <v>2.5312145289443815</v>
       </c>
       <c r="G234" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>1.9385539855777347</v>
       </c>
       <c r="H234" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I234">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J234">
@@ -20446,15 +20446,15 @@
         <v>0.77437325905292487</v>
       </c>
       <c r="G235" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.22562674094707513</v>
       </c>
       <c r="H235" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I235">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J235">
@@ -20478,15 +20478,15 @@
         <v>2.8460431654676261</v>
       </c>
       <c r="G236" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>1.997225816469127</v>
       </c>
       <c r="H236" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I236">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J236">
@@ -20510,15 +20510,15 @@
         <v>1.1565995525727069</v>
       </c>
       <c r="G237" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.65111681655981457</v>
       </c>
       <c r="H237" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I237">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J237">
@@ -20542,15 +20542,15 @@
         <v>1.3469387755102042</v>
       </c>
       <c r="G238" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.47218751446156704</v>
       </c>
       <c r="H238" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I238">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J238">
@@ -20574,15 +20574,15 @@
         <v>1.7084377610693398</v>
       </c>
       <c r="G239" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>1.3685459820534347</v>
       </c>
       <c r="H239" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I239">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J239">
@@ -20606,15 +20606,15 @@
         <v>14.340956340956341</v>
       </c>
       <c r="G240" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>13.561870842536123</v>
       </c>
       <c r="H240" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I240">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J240">
@@ -20638,15 +20638,15 @@
         <v>2.3121301775147929</v>
       </c>
       <c r="G241" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>1.4958947515843284</v>
       </c>
       <c r="H241" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I241">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J241">
@@ -20670,15 +20670,15 @@
         <v>7.1931464174454831</v>
       </c>
       <c r="G242" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>6.6076189736771447</v>
       </c>
       <c r="H242" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I242">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J242">
@@ -20702,15 +20702,15 @@
         <v>7.9597615499254841</v>
       </c>
       <c r="G243" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>7.0024964407950403</v>
       </c>
       <c r="H243" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I243">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J243">
@@ -20734,15 +20734,15 @@
         <v>7.4788844621513944</v>
       </c>
       <c r="G244" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>7.0484151045221504</v>
       </c>
       <c r="H244" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I244">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J244">
@@ -20766,15 +20766,15 @@
         <v>1.2181818181818183</v>
       </c>
       <c r="G245" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.49834221722333605</v>
       </c>
       <c r="H245" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I245">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J245">
@@ -20798,15 +20798,15 @@
         <v>0.98224852071005919</v>
       </c>
       <c r="G246" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.36982248520710059</v>
       </c>
       <c r="H246" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I246">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J246">
@@ -20830,15 +20830,15 @@
         <v>10.022334293948127</v>
       </c>
       <c r="G247" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>9.5463524321271667</v>
       </c>
       <c r="H247" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I247">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J247">
@@ -20862,15 +20862,15 @@
         <v>4.3311258278145699</v>
       </c>
       <c r="G248" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>3.8128886219634124</v>
       </c>
       <c r="H248" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I248">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J248">
@@ -20894,15 +20894,15 @@
         <v>1.5403458213256485</v>
       </c>
       <c r="G249" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.69530932073183904</v>
       </c>
       <c r="H249" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I249">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J249">
@@ -20926,15 +20926,15 @@
         <v>1.858880778588808</v>
       </c>
       <c r="G250" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>1.2195286554069655</v>
       </c>
       <c r="H250" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I250">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J250">
@@ -20958,15 +20958,15 @@
         <v>4.9363336992316134</v>
       </c>
       <c r="G251" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>4.3603752646336211</v>
       </c>
       <c r="H251" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I251">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J251">
@@ -20990,15 +20990,15 @@
         <v>3.3025038323965252</v>
       </c>
       <c r="G252" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>3.1189456816704784</v>
       </c>
       <c r="H252" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I252">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J252">
@@ -21022,15 +21022,15 @@
         <v>14.796723752792257</v>
       </c>
       <c r="G253" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>14.20015535173418</v>
       </c>
       <c r="H253" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I253">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J253">
@@ -21054,15 +21054,15 @@
         <v>11.335414808206959</v>
       </c>
       <c r="G254" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>10.732219464429381</v>
       </c>
       <c r="H254" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I254">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J254">
@@ -21086,15 +21086,15 @@
         <v>4.0637813211845106</v>
       </c>
       <c r="G255" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>3.4138780932020905</v>
       </c>
       <c r="H255" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I255">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J255">
@@ -21118,15 +21118,15 @@
         <v>3.8243727598566313</v>
       </c>
       <c r="G256" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>3.0706996741220354</v>
       </c>
       <c r="H256" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I256">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J256">
@@ -21150,15 +21150,15 @@
         <v>4.4050944946589974</v>
       </c>
       <c r="G257" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>3.9797318054485582</v>
       </c>
       <c r="H257" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I257">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J257">
@@ -21182,15 +21182,15 @@
         <v>1.2831257078142695</v>
       </c>
       <c r="G258" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.71110276020310659</v>
       </c>
       <c r="H258" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I258">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J258">
@@ -21214,15 +21214,15 @@
         <v>1.4555160142348753</v>
       </c>
       <c r="G259" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.52290371195906804</v>
       </c>
       <c r="H259" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I259">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J259">
@@ -21246,15 +21246,15 @@
         <v>11.395565927654609</v>
       </c>
       <c r="G260" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>11.041218655073395</v>
       </c>
       <c r="H260" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I260">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J260">
@@ -21278,15 +21278,15 @@
         <v>16.556701030927837</v>
       </c>
       <c r="G261" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>15.76125252417898</v>
       </c>
       <c r="H261" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I261">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J261">
@@ -21310,15 +21310,15 @@
         <v>0.86412213740457999</v>
       </c>
       <c r="G262" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.50579803041780758</v>
       </c>
       <c r="H262" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I262">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J262">
@@ -21342,15 +21342,15 @@
         <v>4.5890243902439023</v>
       </c>
       <c r="G263" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>3.8915229030339082</v>
       </c>
       <c r="H263" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I263">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J263">
@@ -21374,15 +21374,15 @@
         <v>4.9594272076372317</v>
       </c>
       <c r="G264" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>4.248847978765216</v>
       </c>
       <c r="H264" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I264">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J264">
@@ -21406,15 +21406,15 @@
         <v>1.171628721541156</v>
       </c>
       <c r="G265" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.54888495618649213</v>
       </c>
       <c r="H265" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I265">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J265">
@@ -21438,15 +21438,15 @@
         <v>3.1184882533197138</v>
       </c>
       <c r="G266" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>2.5895042052666777</v>
       </c>
       <c r="H266" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="14"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I266">
-        <f t="shared" si="48"/>
+        <f t="shared" si="15"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J266">
@@ -21470,15 +21470,15 @@
         <v>1.4285714285714286</v>
       </c>
       <c r="G267" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="16"/>
         <v>0.58231585938953556</v>
       </c>
       <c r="H267" s="2">
-        <f t="shared" ref="H267:H291" si="50">$G$292</f>
+        <f t="shared" ref="H267:H291" si="17">$G$292</f>
         <v>13.247983172382199</v>
       </c>
       <c r="I267">
-        <f t="shared" ref="I267:I291" si="51">H267*2.114</f>
+        <f t="shared" ref="I267:I291" si="18">H267*2.114</f>
         <v>28.006236426415967</v>
       </c>
       <c r="J267">
@@ -21502,15 +21502,15 @@
         <v>3.9407407407407411</v>
       </c>
       <c r="G268" s="2">
-        <f t="shared" ref="G268:G291" si="52">MAX(B268:F268)-MIN(B268:F268)</f>
+        <f t="shared" ref="G268:G291" si="19">MAX(B268:F268)-MIN(B268:F268)</f>
         <v>3.3483721060440641</v>
       </c>
       <c r="H268" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I268">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J268">
@@ -21534,15 +21534,15 @@
         <v>4.026128266033254</v>
       </c>
       <c r="G269" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>3.6775758555989988</v>
       </c>
       <c r="H269" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I269">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J269">
@@ -21566,15 +21566,15 @@
         <v>2.9757869249394671</v>
       </c>
       <c r="G270" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>2.660502331738019</v>
       </c>
       <c r="H270" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I270">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J270">
@@ -21598,15 +21598,15 @@
         <v>1.5412719891745603</v>
       </c>
       <c r="G271" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>0.74657630818078791</v>
       </c>
       <c r="H271" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I271">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J271">
@@ -21630,15 +21630,15 @@
         <v>21.684676705048716</v>
       </c>
       <c r="G272" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>21.265426631237084</v>
       </c>
       <c r="H272" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I272">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J272">
@@ -21662,15 +21662,15 @@
         <v>9.6023765996343684</v>
       </c>
       <c r="G273" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>8.9396709323583181</v>
       </c>
       <c r="H273" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I273">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J273">
@@ -21694,15 +21694,15 @@
         <v>23.571476622939795</v>
       </c>
       <c r="G274" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>23.105280861083084</v>
       </c>
       <c r="H274" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I274">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J274">
@@ -21726,15 +21726,15 @@
         <v>1.6093514328808445</v>
       </c>
       <c r="G275" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>1.0105580693815988</v>
       </c>
       <c r="H275" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I275">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J275">
@@ -21758,15 +21758,15 @@
         <v>2.1639344262295079</v>
       </c>
       <c r="G276" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>1.509687034277198</v>
       </c>
       <c r="H276" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I276">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J276">
@@ -21790,15 +21790,15 @@
         <v>2.7961783439490446</v>
       </c>
       <c r="G277" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>2.2600849256900215</v>
       </c>
       <c r="H277" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I277">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J277">
@@ -21822,15 +21822,15 @@
         <v>3.0177262482574725</v>
       </c>
       <c r="G278" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>2.0177262482574725</v>
       </c>
       <c r="H278" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I278">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J278">
@@ -21854,15 +21854,15 @@
         <v>15.961048301031118</v>
       </c>
       <c r="G279" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>15.766054719944167</v>
       </c>
       <c r="H279" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I279">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J279">
@@ -21886,15 +21886,15 @@
         <v>1.7336026583304409</v>
       </c>
       <c r="G280" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>1.6911806106384142</v>
       </c>
       <c r="H280" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I280">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J280">
@@ -21918,15 +21918,15 @@
         <v>5.3332731753212368</v>
       </c>
       <c r="G281" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>4.7414244974926048</v>
       </c>
       <c r="H281" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I281">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J281">
@@ -21950,15 +21950,15 @@
         <v>1.7798742138364778</v>
       </c>
       <c r="G282" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>1.1525157232704402</v>
       </c>
       <c r="H282" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I282">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J282">
@@ -21982,15 +21982,15 @@
         <v>18.110336817653891</v>
       </c>
       <c r="G283" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>17.455865272938443</v>
       </c>
       <c r="H283" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I283">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J283">
@@ -22014,15 +22014,15 @@
         <v>2.9241435562805873</v>
       </c>
       <c r="G284" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>2.4804241435562808</v>
       </c>
       <c r="H284" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I284">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J284">
@@ -22046,15 +22046,15 @@
         <v>1.293478260869565</v>
       </c>
       <c r="G285" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>0.61231884057970998</v>
       </c>
       <c r="H285" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I285">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J285">
@@ -22078,15 +22078,15 @@
         <v>1.0637931034482759</v>
       </c>
       <c r="G286" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>0.41896551724137931</v>
       </c>
       <c r="H286" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I286">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J286">
@@ -22110,15 +22110,15 @@
         <v>1.1560509554140126</v>
       </c>
       <c r="G287" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>0.51433121019108263</v>
       </c>
       <c r="H287" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I287">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J287">
@@ -22142,15 +22142,15 @@
         <v>4.5968523002421309</v>
       </c>
       <c r="G288" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>3.898305084745763</v>
       </c>
       <c r="H288" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I288">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J288">
@@ -22174,15 +22174,15 @@
         <v>115.81008712333148</v>
       </c>
       <c r="G289" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>115.56965870034371</v>
       </c>
       <c r="H289" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I289">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J289">
@@ -22206,15 +22206,15 @@
         <v>28.528021015761823</v>
       </c>
       <c r="G290" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>27.990367775831874</v>
       </c>
       <c r="H290" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I290">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J290">
@@ -22238,15 +22238,15 @@
         <v>56.132591093117412</v>
       </c>
       <c r="G291" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="19"/>
         <v>55.371457489878544</v>
       </c>
       <c r="H291" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="17"/>
         <v>13.247983172382199</v>
       </c>
       <c r="I291">
-        <f t="shared" si="51"/>
+        <f t="shared" si="18"/>
         <v>28.006236426415967</v>
       </c>
       <c r="J291">

--- a/stats1000_Time.xlsx
+++ b/stats1000_Time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-4160" yWindow="-22700" windowWidth="34660" windowHeight="19740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="c-Chart" sheetId="3" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="48">
   <si>
     <t>JAVA</t>
   </si>
@@ -185,6 +185,48 @@
   </si>
   <si>
     <t>Math</t>
+  </si>
+  <si>
+    <t>res$SDist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [1] 0.14969078 0.20756453 0.52939765 0.48205919 0.53067158 1.05901734 0.23022553 0.25457648 0.18550805</t>
+  </si>
+  <si>
+    <t>[10] 0.32222099 0.37086432 0.51402579 0.38245849 0.18554917 0.22176850 0.26462026 0.43375542 0.44664381</t>
+  </si>
+  <si>
+    <t>[19] 0.81387112 0.23475080 0.58691332 0.40263194 1.76944405 0.22257055 0.93931797 0.40584636 0.55533382</t>
+  </si>
+  <si>
+    <t>[28] 0.97313075 0.76770525 4.72769673 5.15635786 0.31812942 0.22856172 0.67415087 0.28329087 0.20979161</t>
+  </si>
+  <si>
+    <t>[37] 0.30224571 1.60974975 0.67395270 0.28736649 0.52366931 0.26557904 0.75813646 0.19050086 0.38251680</t>
+  </si>
+  <si>
+    <t>[46] 0.63631917 0.37654346 0.45077025 0.28068950 0.26524696 0.77404085 0.38207238 0.35549947 0.27320198</t>
+  </si>
+  <si>
+    <t>[55] 0.40122799 0.25642997 0.26804288 0.51537730 0.70487433 0.27104902 0.26988382 0.46949897 0.30672735</t>
+  </si>
+  <si>
+    <t>[64] 0.46234763 0.24736318 0.44945737 0.31633885 0.38321040 0.29612117 0.31524948 0.35094077 0.35869863</t>
+  </si>
+  <si>
+    <t>[73] 0.24602907 0.31297549 0.35623093 0.25009724 0.27773551 0.42940697 0.26401820 0.13684403 0.65962123</t>
+  </si>
+  <si>
+    <t>[82] 0.93898233 2.32094991 0.31584023 0.47290862 0.48829709 0.50705440 0.46414588 0.81133995 0.59427924</t>
+  </si>
+  <si>
+    <t>[91] 5.43975853 0.37073896 0.08695586 0.76728072 9.00457302</t>
+  </si>
+  <si>
+    <t>&gt; res$critSD</t>
+  </si>
+  <si>
+    <t>[1] 2.716203</t>
   </si>
 </sst>
 </file>
@@ -465,7 +507,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1947">
+  <cellStyleXfs count="1977">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1895,6 +1937,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2485,7 +2557,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1947">
+  <cellStyles count="1977">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -3458,6 +3530,21 @@
     <cellStyle name="Lien hypertexte" xfId="1941" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="1943" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="1945" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1947" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1949" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1951" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1953" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1955" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1957" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1959" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1961" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1963" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1965" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1967" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1969" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1971" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1973" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1975" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -4430,6 +4517,21 @@
     <cellStyle name="Lien hypertexte visité" xfId="1942" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="1944" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="1946" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1948" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1950" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1952" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1954" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1956" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1958" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1960" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1962" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1964" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1966" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1968" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1970" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1972" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1974" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="1976" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1427"/>
     <cellStyle name="Pourcentage 2" xfId="1428"/>
@@ -4922,11 +5024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2039721224"/>
-        <c:axId val="2039726232"/>
+        <c:axId val="2039793096"/>
+        <c:axId val="-2085245448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2039721224"/>
+        <c:axId val="2039793096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4961,7 +5063,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039726232"/>
+        <c:crossAx val="-2085245448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4971,7 +5073,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2039726232"/>
+        <c:axId val="-2085245448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5016,7 +5118,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039721224"/>
+        <c:crossAx val="2039793096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5295,8 +5397,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2119081752"/>
-        <c:axId val="-2119087512"/>
+        <c:axId val="-2116515480"/>
+        <c:axId val="-2116509848"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5886,11 +5988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2119081752"/>
-        <c:axId val="-2119087512"/>
+        <c:axId val="-2116515480"/>
+        <c:axId val="-2116509848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2119081752"/>
+        <c:axId val="-2116515480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5944,7 +6046,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119087512"/>
+        <c:crossAx val="-2116509848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5954,7 +6056,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2119087512"/>
+        <c:axId val="-2116509848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6024,7 +6126,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2119081752"/>
+        <c:crossAx val="-2116515480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6262,8 +6364,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-2115525736"/>
-        <c:axId val="-2115519672"/>
+        <c:axId val="-2063726008"/>
+        <c:axId val="-2116241784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6736,11 +6838,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2115525736"/>
-        <c:axId val="-2115519672"/>
+        <c:axId val="-2063726008"/>
+        <c:axId val="-2116241784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2115525736"/>
+        <c:axId val="-2063726008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6800,7 +6902,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115519672"/>
+        <c:crossAx val="-2116241784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6810,7 +6912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115519672"/>
+        <c:axId val="-2116241784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6874,7 +6976,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115525736"/>
+        <c:crossAx val="-2063726008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7106,8 +7208,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-2115456936"/>
-        <c:axId val="-2115450872"/>
+        <c:axId val="-2063977816"/>
+        <c:axId val="-2064023096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7559,11 +7661,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2115456936"/>
-        <c:axId val="-2115450872"/>
+        <c:axId val="-2063977816"/>
+        <c:axId val="-2064023096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2115456936"/>
+        <c:axId val="-2063977816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7623,7 +7725,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115450872"/>
+        <c:crossAx val="-2064023096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7633,7 +7735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2115450872"/>
+        <c:axId val="-2064023096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7703,7 +7805,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2115456936"/>
+        <c:crossAx val="-2063977816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7935,8 +8037,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-2117202024"/>
-        <c:axId val="-2117195992"/>
+        <c:axId val="-2116586216"/>
+        <c:axId val="-2064031864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8380,11 +8482,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2117202024"/>
-        <c:axId val="-2117195992"/>
+        <c:axId val="-2116586216"/>
+        <c:axId val="-2064031864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2117202024"/>
+        <c:axId val="-2116586216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8444,7 +8546,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117195992"/>
+        <c:crossAx val="-2064031864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8454,7 +8556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117195992"/>
+        <c:axId val="-2064031864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8524,7 +8626,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117202024"/>
+        <c:crossAx val="-2116586216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8756,8 +8858,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-2117135416"/>
-        <c:axId val="-2117129384"/>
+        <c:axId val="-2064267224"/>
+        <c:axId val="-2064261208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9209,11 +9311,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2117135416"/>
-        <c:axId val="-2117129384"/>
+        <c:axId val="-2064267224"/>
+        <c:axId val="-2064261208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2117135416"/>
+        <c:axId val="-2064267224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9273,7 +9375,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117129384"/>
+        <c:crossAx val="-2064261208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9283,7 +9385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117129384"/>
+        <c:axId val="-2064261208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9353,7 +9455,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117135416"/>
+        <c:crossAx val="-2064267224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9586,8 +9688,8 @@
         </c:dLbls>
         <c:gapWidth val="500"/>
         <c:overlap val="-45"/>
-        <c:axId val="-2117650328"/>
-        <c:axId val="-2117656408"/>
+        <c:axId val="-2064203640"/>
+        <c:axId val="-2088143352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10031,11 +10133,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2117650328"/>
-        <c:axId val="-2117656408"/>
+        <c:axId val="-2064203640"/>
+        <c:axId val="-2088143352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2117650328"/>
+        <c:axId val="-2064203640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10095,7 +10197,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117656408"/>
+        <c:crossAx val="-2088143352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10105,7 +10207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117656408"/>
+        <c:axId val="-2088143352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10175,7 +10277,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117650328"/>
+        <c:crossAx val="-2064203640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10259,7 +10361,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -10465,8 +10566,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2117722856"/>
-        <c:axId val="-2117728360"/>
+        <c:axId val="-2087865016"/>
+        <c:axId val="-2088126680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10491,7 +10592,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="50"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -10704,7 +10804,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="50"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -10921,7 +11020,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="50"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -11129,11 +11227,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2117722856"/>
-        <c:axId val="-2117728360"/>
+        <c:axId val="-2087865016"/>
+        <c:axId val="-2088126680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2117722856"/>
+        <c:axId val="-2087865016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11178,7 +11276,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2117728360"/>
+        <c:crossAx val="-2088126680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11186,7 +11284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2117728360"/>
+        <c:axId val="-2088126680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11233,7 +11331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117722856"/>
+        <c:crossAx val="-2087865016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14615,8 +14713,8 @@
   <sheetPr codeName="Feuil2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:AI292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ21" sqref="AJ21"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19077,14 +19175,14 @@
         <v>1.6121212121212121</v>
       </c>
     </row>
-    <row r="145" spans="2:6">
+    <row r="145" spans="2:10">
       <c r="B145" s="40"/>
       <c r="C145" s="40"/>
       <c r="D145" s="40"/>
       <c r="E145" s="40"/>
       <c r="F145" s="40"/>
     </row>
-    <row r="146" spans="2:6" ht="16">
+    <row r="146" spans="2:10" ht="16">
       <c r="B146" s="44" t="s">
         <v>10</v>
       </c>
@@ -19093,7 +19191,7 @@
       <c r="E146" s="43"/>
       <c r="F146" s="43"/>
     </row>
-    <row r="147" spans="2:6" ht="16">
+    <row r="147" spans="2:10" ht="16">
       <c r="B147" s="44" t="s">
         <v>0</v>
       </c>
@@ -19110,7 +19208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:6">
+    <row r="148" spans="2:10">
       <c r="B148" s="43">
         <v>1</v>
       </c>
@@ -19127,196 +19225,238 @@
         <v>16.76087779038971</v>
       </c>
     </row>
-    <row r="149" spans="2:6">
+    <row r="149" spans="2:10">
       <c r="B149" s="40"/>
       <c r="C149" s="40"/>
       <c r="D149" s="40"/>
       <c r="E149" s="40"/>
       <c r="F149" s="40"/>
     </row>
-    <row r="150" spans="2:6">
+    <row r="150" spans="2:10">
       <c r="B150" s="40"/>
       <c r="C150" s="40"/>
       <c r="D150" s="40"/>
       <c r="E150" s="40"/>
       <c r="F150" s="40"/>
     </row>
-    <row r="151" spans="2:6">
+    <row r="151" spans="2:10">
       <c r="B151" s="40"/>
       <c r="C151" s="40"/>
       <c r="D151" s="40"/>
       <c r="E151" s="40"/>
       <c r="F151" s="40"/>
     </row>
-    <row r="152" spans="2:6">
+    <row r="152" spans="2:10">
       <c r="B152" s="40"/>
       <c r="C152" s="40"/>
       <c r="D152" s="40"/>
       <c r="E152" s="40"/>
       <c r="F152" s="40"/>
     </row>
-    <row r="153" spans="2:6">
+    <row r="153" spans="2:10">
       <c r="B153" s="40"/>
       <c r="C153" s="40"/>
       <c r="D153" s="40"/>
       <c r="E153" s="40"/>
       <c r="F153" s="40"/>
     </row>
-    <row r="154" spans="2:6">
+    <row r="154" spans="2:10">
       <c r="B154" s="40"/>
       <c r="C154" s="40"/>
       <c r="D154" s="40"/>
       <c r="E154" s="40"/>
       <c r="F154" s="40"/>
     </row>
-    <row r="155" spans="2:6">
+    <row r="155" spans="2:10">
       <c r="B155" s="40"/>
       <c r="C155" s="40"/>
       <c r="D155" s="40"/>
       <c r="E155" s="40"/>
       <c r="F155" s="40"/>
-    </row>
-    <row r="156" spans="2:6">
+      <c r="J155" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10">
       <c r="B156" s="40"/>
       <c r="C156" s="40"/>
       <c r="D156" s="40"/>
       <c r="E156" s="40"/>
       <c r="F156" s="40"/>
-    </row>
-    <row r="157" spans="2:6">
+      <c r="J156" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10">
       <c r="B157" s="40"/>
       <c r="C157" s="40"/>
       <c r="D157" s="40"/>
       <c r="E157" s="40"/>
       <c r="F157" s="40"/>
-    </row>
-    <row r="158" spans="2:6">
+      <c r="J157" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10">
       <c r="B158" s="40"/>
       <c r="C158" s="40"/>
       <c r="D158" s="40"/>
       <c r="E158" s="40"/>
       <c r="F158" s="40"/>
-    </row>
-    <row r="159" spans="2:6">
+      <c r="J158" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10">
       <c r="B159" s="40"/>
       <c r="C159" s="40"/>
       <c r="D159" s="40"/>
       <c r="E159" s="40"/>
       <c r="F159" s="40"/>
-    </row>
-    <row r="160" spans="2:6">
+      <c r="J159" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10">
       <c r="B160" s="40"/>
       <c r="C160" s="40"/>
       <c r="D160" s="40"/>
       <c r="E160" s="40"/>
       <c r="F160" s="40"/>
-    </row>
-    <row r="161" spans="2:6">
+      <c r="J160" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10">
       <c r="B161" s="40"/>
       <c r="C161" s="40"/>
       <c r="D161" s="40"/>
       <c r="E161" s="40"/>
       <c r="F161" s="40"/>
-    </row>
-    <row r="162" spans="2:6">
+      <c r="J161" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10">
       <c r="B162" s="40"/>
       <c r="C162" s="40"/>
       <c r="D162" s="40"/>
       <c r="E162" s="40"/>
       <c r="F162" s="40"/>
-    </row>
-    <row r="163" spans="2:6">
+      <c r="J162" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10">
       <c r="B163" s="40"/>
       <c r="C163" s="40"/>
       <c r="D163" s="40"/>
       <c r="E163" s="40"/>
       <c r="F163" s="40"/>
-    </row>
-    <row r="164" spans="2:6">
+      <c r="J163" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10">
       <c r="B164" s="40"/>
       <c r="C164" s="40"/>
       <c r="D164" s="40"/>
       <c r="E164" s="40"/>
       <c r="F164" s="40"/>
-    </row>
-    <row r="165" spans="2:6">
+      <c r="J164" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10">
       <c r="B165" s="40"/>
       <c r="C165" s="40"/>
       <c r="D165" s="40"/>
       <c r="E165" s="40"/>
       <c r="F165" s="40"/>
-    </row>
-    <row r="166" spans="2:6">
+      <c r="J165" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10">
       <c r="B166" s="40"/>
       <c r="C166" s="40"/>
       <c r="D166" s="40"/>
       <c r="E166" s="40"/>
       <c r="F166" s="40"/>
-    </row>
-    <row r="167" spans="2:6">
+      <c r="J166" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10">
       <c r="B167" s="40"/>
       <c r="C167" s="40"/>
       <c r="D167" s="40"/>
       <c r="E167" s="40"/>
       <c r="F167" s="40"/>
-    </row>
-    <row r="168" spans="2:6">
+      <c r="J167" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10">
       <c r="B168" s="40"/>
       <c r="C168" s="40"/>
       <c r="D168" s="40"/>
       <c r="E168" s="40"/>
       <c r="F168" s="40"/>
-    </row>
-    <row r="169" spans="2:6">
+      <c r="J168" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10">
       <c r="B169" s="40"/>
       <c r="C169" s="40"/>
       <c r="D169" s="40"/>
       <c r="E169" s="40"/>
       <c r="F169" s="40"/>
     </row>
-    <row r="170" spans="2:6">
+    <row r="170" spans="2:10">
       <c r="B170" s="40"/>
       <c r="C170" s="40"/>
       <c r="D170" s="40"/>
       <c r="E170" s="40"/>
       <c r="F170" s="40"/>
     </row>
-    <row r="171" spans="2:6">
+    <row r="171" spans="2:10">
       <c r="B171" s="40"/>
       <c r="C171" s="40"/>
       <c r="D171" s="40"/>
       <c r="E171" s="40"/>
       <c r="F171" s="40"/>
     </row>
-    <row r="172" spans="2:6">
+    <row r="172" spans="2:10">
       <c r="B172" s="40"/>
       <c r="C172" s="40"/>
       <c r="D172" s="40"/>
       <c r="E172" s="40"/>
       <c r="F172" s="40"/>
     </row>
-    <row r="173" spans="2:6">
+    <row r="173" spans="2:10">
       <c r="B173" s="40"/>
       <c r="C173" s="40"/>
       <c r="D173" s="40"/>
       <c r="E173" s="40"/>
       <c r="F173" s="40"/>
     </row>
-    <row r="174" spans="2:6">
+    <row r="174" spans="2:10">
       <c r="B174" s="40"/>
       <c r="C174" s="40"/>
       <c r="D174" s="40"/>
       <c r="E174" s="40"/>
       <c r="F174" s="40"/>
     </row>
-    <row r="175" spans="2:6">
+    <row r="175" spans="2:10">
       <c r="B175" s="40"/>
       <c r="C175" s="40"/>
       <c r="D175" s="40"/>
       <c r="E175" s="40"/>
       <c r="F175" s="40"/>
     </row>
-    <row r="176" spans="2:6">
+    <row r="176" spans="2:10">
       <c r="B176" s="40"/>
       <c r="C176" s="40"/>
       <c r="D176" s="40"/>
